--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{588F4407-B23C-4BAA-AB3B-31B06E75EF5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{928C7340-8812-4710-8539-88AB26B50651}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Second Duration</t>
+  </si>
+  <si>
+    <t>Absolute Value</t>
   </si>
 </sst>
 </file>
@@ -71,20 +77,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -94,6 +104,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -109,14 +122,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:D15" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D15" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00E660B2-6437-4AE9-BEC8-C301204937AF}" name="End Time" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D9963DBC-C69E-420B-82AB-9CD5E60E9512}" name="Duration" dataDxfId="1">
-      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F15" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F15" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00E660B2-6437-4AE9-BEC8-C301204937AF}" name="End Time" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D9963DBC-C69E-420B-82AB-9CD5E60E9512}" name="Duration" dataDxfId="2">
+      <calculatedColumnFormula>(C2-B2)* 1440</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B183478E-E8AE-4F0F-833D-55D03DF9F101}" name="Second Duration" dataDxfId="1">
+      <calculatedColumnFormula>IF(C2&gt;B2, (C2-B2)*1440, (B2-C2)*1440)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{30C329C8-FEBC-46A6-984D-95D036A78306}" name="Absolute Value" dataDxfId="0">
+      <calculatedColumnFormula>ABS((C2-B2)*1440)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -386,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,10 +416,12 @@
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -410,11 +431,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43334</v>
       </c>
@@ -424,110 +451,240 @@
       <c r="C2" s="1">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2-B2</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <f>(C2-B2)* 1440</f>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E15" si="0">IF(C2&gt;B2, (C2-B2)*1440, (B2-C2)*1440)</f>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F15" si="1">ABS((C2-B2)*1440)</f>
+        <v>30.000000000000053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C3" s="1">
         <v>0.42569444444444443</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D15" si="0">C3-B3</f>
-        <v>9.0277777777777457E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D15" si="2">(C3-B3)* 1440</f>
+        <v>12.999999999999954</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>12.999999999999954</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>12.999999999999954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="C4" s="1">
         <v>0.56666666666666665</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5833333333333282E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <f t="shared" si="2"/>
+        <v>65.999999999999929</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>65.999999999999929</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>65.999999999999929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0.56805555555555554</v>
       </c>
       <c r="C5" s="1">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15277777777777779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <f t="shared" si="2"/>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43335</v>
       </c>
       <c r="B6" s="1">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.78472222222222221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
+      <c r="C6" s="1">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>-411.00000000000006</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>411.00000000000006</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>411.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43337</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(C8-B8)* 1440</f>
+        <v>-593</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{928C7340-8812-4710-8539-88AB26B50651}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FEE371F-8DF2-4E39-BD45-CC97D6F7C5BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,59 +577,86 @@
       <c r="B8" s="1">
         <v>0.41180555555555554</v>
       </c>
+      <c r="C8" s="1">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="D8" s="3">
         <f>(C8-B8)* 1440</f>
-        <v>-593</v>
+        <v>52.000000000000057</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>593</v>
+        <v>52.000000000000057</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>593</v>
+        <v>52.000000000000057</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>139.99999999999997</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>139.99999999999997</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>139.99999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43338</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.4993055555555555</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-416.00000000000023</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>416.00000000000023</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>416.00000000000023</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43339</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.2986111111111111</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FEE371F-8DF2-4E39-BD45-CC97D6F7C5BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E63333D-15D1-4F86-BC78-A671C0E892B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,36 +644,48 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0.2986111111111111</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>278.99999999999994</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>278.99999999999994</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>278.99999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43341</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E63333D-15D1-4F86-BC78-A671C0E892B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{763F89A4-BAD6-4DFF-9C1F-E4DD5523375F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +686,12 @@
       <c r="A13" s="2">
         <v>43341</v>
       </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -700,20 +706,35 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43342</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>198.99999999999994</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>198.99999999999994</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>198.99999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{763F89A4-BAD6-4DFF-9C1F-E4DD5523375F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0659ABAA-87B9-4511-9DB4-E88446EF6946}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,22 +710,22 @@
         <v>43342</v>
       </c>
       <c r="B14" s="1">
-        <v>0.86111111111111116</v>
+        <v>0.85833333333333339</v>
       </c>
       <c r="C14" s="1">
         <v>0.99930555555555556</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>198.99999999999994</v>
+        <v>202.99999999999991</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>198.99999999999994</v>
+        <v>202.99999999999991</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>198.99999999999994</v>
+        <v>202.99999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0659ABAA-87B9-4511-9DB4-E88446EF6946}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22A07140-3629-4C5A-BC28-3429152BE0A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -77,11 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F15" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F15" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F17" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F17" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -405,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,19 +533,19 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="C6" s="1">
-        <v>0.4993055555555555</v>
+        <v>0.49998842592592596</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="2"/>
-        <v>-411.00000000000006</v>
+        <v>-410.01666666666659</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>411.00000000000006</v>
+        <v>410.01666666666659</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>411.00000000000006</v>
+        <v>410.01666666666659</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,19 +622,19 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="C10" s="1">
-        <v>0.4993055555555555</v>
+        <v>0.49998842592592596</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="2"/>
-        <v>-416.00000000000023</v>
+        <v>-415.01666666666677</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>416.00000000000023</v>
+        <v>415.01666666666677</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>416.00000000000023</v>
+        <v>415.01666666666677</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,16 +736,62 @@
       <c r="B15" s="1">
         <v>0</v>
       </c>
+      <c r="C15" s="1">
+        <v>0.34097222222222223</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D16" s="3">
+        <f>(C16-B16)* 1440</f>
+        <v>227</v>
+      </c>
+      <c r="E16" s="4">
+        <f>IF(C16&gt;B16, (C16-B16)*1440, (B16-C16)*1440)</f>
+        <v>227</v>
+      </c>
+      <c r="F16" s="4">
+        <f>ABS((C16-B16)*1440)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43345</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(C17-B17)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>IF(C17&gt;B17, (C17-B17)*1440, (B17-C17)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>ABS((C17-B17)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22A07140-3629-4C5A-BC28-3429152BE0A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EC1A017-C17A-44DA-919E-A2769BAD7A85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F17" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F17" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F20" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F20" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +466,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43334</v>
+      </c>
       <c r="B3" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -486,6 +489,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43334</v>
+      </c>
       <c r="B4" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -506,6 +512,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43334</v>
+      </c>
       <c r="B5" s="1">
         <v>0.56805555555555554</v>
       </c>
@@ -595,6 +604,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43337</v>
+      </c>
       <c r="B9" s="1">
         <v>0.61805555555555558</v>
       </c>
@@ -711,22 +723,22 @@
         <v>43342</v>
       </c>
       <c r="B14" s="1">
-        <v>0.85833333333333339</v>
+        <v>0.85069444444444453</v>
       </c>
       <c r="C14" s="1">
         <v>0.99930555555555556</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>202.99999999999991</v>
+        <v>213.99999999999989</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>202.99999999999991</v>
+        <v>213.99999999999989</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>202.99999999999991</v>
+        <v>213.99999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,61 +749,124 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0.34097222222222223</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>491</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43344</v>
+        <v>43343</v>
       </c>
       <c r="B16" s="1">
-        <v>0.84166666666666667</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C16" s="1">
-        <v>0.99930555555555556</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="D16" s="3">
         <f>(C16-B16)* 1440</f>
-        <v>227</v>
+        <v>356.00000000000011</v>
       </c>
       <c r="E16" s="4">
         <f>IF(C16&gt;B16, (C16-B16)*1440, (B16-C16)*1440)</f>
-        <v>227</v>
+        <v>356.00000000000011</v>
       </c>
       <c r="F16" s="4">
         <f>ABS((C16-B16)*1440)</f>
-        <v>227</v>
+        <v>356.00000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>43345</v>
+        <v>43344</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>0.84375</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99930555555555556</v>
       </c>
       <c r="D17" s="3">
         <f>(C17-B17)* 1440</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="E17" s="4">
         <f>IF(C17&gt;B17, (C17-B17)*1440, (B17-C17)*1440)</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="F17" s="4">
         <f>ABS((C17-B17)*1440)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43345</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="D18" s="3">
+        <f>(C18-B18)* 1440</f>
+        <v>272</v>
+      </c>
+      <c r="E18" s="4">
+        <f>IF(C18&gt;B18, (C18-B18)*1440, (B18-C18)*1440)</f>
+        <v>272</v>
+      </c>
+      <c r="F18" s="4">
+        <f>ABS((C18-B18)*1440)</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43346</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D19" s="3">
+        <f>(C19-B19)* 1440</f>
+        <v>219.99999999999994</v>
+      </c>
+      <c r="E19" s="4">
+        <f>IF(C19&gt;B19, (C19-B19)*1440, (B19-C19)*1440)</f>
+        <v>219.99999999999994</v>
+      </c>
+      <c r="F19" s="4">
+        <f>ABS((C19-B19)*1440)</f>
+        <v>219.99999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <f>(C20-B20)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <f>IF(C20&gt;B20, (C20-B20)*1440, (B20-C20)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f>ABS((C20-B20)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EC1A017-C17A-44DA-919E-A2769BAD7A85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6BF1C5E-C674-4088-BEF9-1D9C43F9B16E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F20" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F20" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F21" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F21" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
@@ -857,16 +857,45 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D20" s="3">
         <f>(C20-B20)* 1440</f>
-        <v>0</v>
+        <v>369.99999999999994</v>
       </c>
       <c r="E20" s="4">
         <f>IF(C20&gt;B20, (C20-B20)*1440, (B20-C20)*1440)</f>
-        <v>0</v>
+        <v>369.99999999999994</v>
       </c>
       <c r="F20" s="4">
         <f>ABS((C20-B20)*1440)</f>
+        <v>369.99999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43348</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <f>(C21-B21)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <f>IF(C21&gt;B21, (C21-B21)*1440, (B21-C21)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f>ABS((C21-B21)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6BF1C5E-C674-4088-BEF9-1D9C43F9B16E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0FAAC04-E316-410E-B397-4F7D56BD09C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F21" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F21" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F23" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F23" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,15 +775,15 @@
         <v>0.6430555555555556</v>
       </c>
       <c r="D16" s="3">
-        <f>(C16-B16)* 1440</f>
+        <f t="shared" ref="D16:D21" si="3">(C16-B16)* 1440</f>
         <v>356.00000000000011</v>
       </c>
       <c r="E16" s="4">
-        <f>IF(C16&gt;B16, (C16-B16)*1440, (B16-C16)*1440)</f>
+        <f t="shared" ref="E16:E21" si="4">IF(C16&gt;B16, (C16-B16)*1440, (B16-C16)*1440)</f>
         <v>356.00000000000011</v>
       </c>
       <c r="F16" s="4">
-        <f>ABS((C16-B16)*1440)</f>
+        <f t="shared" ref="F16:F21" si="5">ABS((C16-B16)*1440)</f>
         <v>356.00000000000011</v>
       </c>
     </row>
@@ -798,15 +798,15 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D17" s="3">
-        <f>(C17-B17)* 1440</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="E17" s="4">
-        <f>IF(C17&gt;B17, (C17-B17)*1440, (B17-C17)*1440)</f>
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
       <c r="F17" s="4">
-        <f>ABS((C17-B17)*1440)</f>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
     </row>
@@ -821,15 +821,15 @@
         <v>0.18888888888888888</v>
       </c>
       <c r="D18" s="3">
-        <f>(C18-B18)* 1440</f>
+        <f t="shared" si="3"/>
         <v>272</v>
       </c>
       <c r="E18" s="4">
-        <f>IF(C18&gt;B18, (C18-B18)*1440, (B18-C18)*1440)</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="F18" s="4">
-        <f>ABS((C18-B18)*1440)</f>
+        <f t="shared" si="5"/>
         <v>272</v>
       </c>
     </row>
@@ -844,15 +844,15 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D19" s="3">
-        <f>(C19-B19)* 1440</f>
+        <f t="shared" si="3"/>
         <v>219.99999999999994</v>
       </c>
       <c r="E19" s="4">
-        <f>IF(C19&gt;B19, (C19-B19)*1440, (B19-C19)*1440)</f>
+        <f t="shared" si="4"/>
         <v>219.99999999999994</v>
       </c>
       <c r="F19" s="4">
-        <f>ABS((C19-B19)*1440)</f>
+        <f t="shared" si="5"/>
         <v>219.99999999999994</v>
       </c>
     </row>
@@ -867,15 +867,15 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D20" s="3">
-        <f>(C20-B20)* 1440</f>
+        <f t="shared" si="3"/>
         <v>369.99999999999994</v>
       </c>
       <c r="E20" s="4">
-        <f>IF(C20&gt;B20, (C20-B20)*1440, (B20-C20)*1440)</f>
+        <f t="shared" si="4"/>
         <v>369.99999999999994</v>
       </c>
       <c r="F20" s="4">
-        <f>ABS((C20-B20)*1440)</f>
+        <f t="shared" si="5"/>
         <v>369.99999999999994</v>
       </c>
     </row>
@@ -886,16 +886,59 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
+      <c r="C21" s="1">
+        <v>0.33958333333333335</v>
+      </c>
       <c r="D21" s="3">
-        <f>(C21-B21)* 1440</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>489</v>
       </c>
       <c r="E21" s="4">
-        <f>IF(C21&gt;B21, (C21-B21)*1440, (B21-C21)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>489</v>
       </c>
       <c r="F21" s="4">
-        <f>ABS((C21-B21)*1440)</f>
+        <f t="shared" si="5"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43349</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="D22" s="3">
+        <f>(C22-B22)* 1440</f>
+        <v>270</v>
+      </c>
+      <c r="E22" s="4">
+        <f>IF(C22&gt;B22, (C22-B22)*1440, (B22-C22)*1440)</f>
+        <v>270</v>
+      </c>
+      <c r="F22" s="4">
+        <f>ABS((C22-B22)*1440)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43350</v>
+      </c>
+      <c r="D23" s="3">
+        <f>(C23-B23)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>IF(C23&gt;B23, (C23-B23)*1440, (B23-C23)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f>ABS((C23-B23)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0FAAC04-E316-410E-B397-4F7D56BD09C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4197DA91-7242-4274-A541-E2AC96285F7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F23" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F23" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F25" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F25" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,17 +929,66 @@
       <c r="A23" s="2">
         <v>43350</v>
       </c>
+      <c r="B23" s="1">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.82500000000000007</v>
+      </c>
       <c r="D23" s="3">
         <f>(C23-B23)* 1440</f>
-        <v>0</v>
+        <v>2.0000000000001528</v>
       </c>
       <c r="E23" s="4">
         <f>IF(C23&gt;B23, (C23-B23)*1440, (B23-C23)*1440)</f>
-        <v>0</v>
+        <v>2.0000000000001528</v>
       </c>
       <c r="F23" s="4">
         <f>ABS((C23-B23)*1440)</f>
-        <v>0</v>
+        <v>2.0000000000001528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43351</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f>(C24-B24)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f>IF(C24&gt;B24, (C24-B24)*1440, (B24-C24)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f>ABS((C24-B24)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43352</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D25" s="3">
+        <f>(C25-B25)* 1440</f>
+        <v>-504.99999999999994</v>
+      </c>
+      <c r="E25" s="4">
+        <f>IF(C25&gt;B25, (C25-B25)*1440, (B25-C25)*1440)</f>
+        <v>504.99999999999994</v>
+      </c>
+      <c r="F25" s="4">
+        <f>ABS((C25-B25)*1440)</f>
+        <v>504.99999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4197DA91-7242-4274-A541-E2AC96285F7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13DE6DE6-CD22-4D0E-A760-1D89ABD43DA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F25" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F25" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F27" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F27" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,17 +978,57 @@
       <c r="B25" s="1">
         <v>0.35069444444444442</v>
       </c>
+      <c r="C25" s="1">
+        <v>0.56805555555555554</v>
+      </c>
       <c r="D25" s="3">
         <f>(C25-B25)* 1440</f>
-        <v>-504.99999999999994</v>
+        <v>313</v>
       </c>
       <c r="E25" s="4">
         <f>IF(C25&gt;B25, (C25-B25)*1440, (B25-C25)*1440)</f>
-        <v>504.99999999999994</v>
+        <v>313</v>
       </c>
       <c r="F25" s="4">
         <f>ABS((C25-B25)*1440)</f>
-        <v>504.99999999999994</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43352</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="D26" s="3">
+        <f>(C26-B26)* 1440</f>
+        <v>213.99999999999989</v>
+      </c>
+      <c r="E26" s="4">
+        <f>IF(C26&gt;B26, (C26-B26)*1440, (B26-C26)*1440)</f>
+        <v>213.99999999999989</v>
+      </c>
+      <c r="F26" s="4">
+        <f>ABS((C26-B26)*1440)</f>
+        <v>213.99999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <f>(C27-B27)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f>IF(C27&gt;B27, (C27-B27)*1440, (B27-C27)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f>ABS((C27-B27)*1440)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13DE6DE6-CD22-4D0E-A760-1D89ABD43DA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{828CF57E-FC33-4CD8-986F-3E3CCD5F4CD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6750" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F27" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F27" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F30" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F30" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
@@ -913,15 +913,15 @@
         <v>0.71875</v>
       </c>
       <c r="D22" s="3">
-        <f>(C22-B22)* 1440</f>
+        <f t="shared" ref="D22:D27" si="6">(C22-B22)* 1440</f>
         <v>270</v>
       </c>
       <c r="E22" s="4">
-        <f>IF(C22&gt;B22, (C22-B22)*1440, (B22-C22)*1440)</f>
+        <f t="shared" ref="E22:E27" si="7">IF(C22&gt;B22, (C22-B22)*1440, (B22-C22)*1440)</f>
         <v>270</v>
       </c>
       <c r="F22" s="4">
-        <f>ABS((C22-B22)*1440)</f>
+        <f t="shared" ref="F22:F27" si="8">ABS((C22-B22)*1440)</f>
         <v>270</v>
       </c>
     </row>
@@ -936,15 +936,15 @@
         <v>0.82500000000000007</v>
       </c>
       <c r="D23" s="3">
-        <f>(C23-B23)* 1440</f>
+        <f t="shared" si="6"/>
         <v>2.0000000000001528</v>
       </c>
       <c r="E23" s="4">
-        <f>IF(C23&gt;B23, (C23-B23)*1440, (B23-C23)*1440)</f>
+        <f t="shared" si="7"/>
         <v>2.0000000000001528</v>
       </c>
       <c r="F23" s="4">
-        <f>ABS((C23-B23)*1440)</f>
+        <f t="shared" si="8"/>
         <v>2.0000000000001528</v>
       </c>
     </row>
@@ -959,15 +959,15 @@
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <f>(C24-B24)* 1440</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f>IF(C24&gt;B24, (C24-B24)*1440, (B24-C24)*1440)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f>ABS((C24-B24)*1440)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -982,15 +982,15 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="D25" s="3">
-        <f>(C25-B25)* 1440</f>
+        <f t="shared" si="6"/>
         <v>313</v>
       </c>
       <c r="E25" s="4">
-        <f>IF(C25&gt;B25, (C25-B25)*1440, (B25-C25)*1440)</f>
+        <f t="shared" si="7"/>
         <v>313</v>
       </c>
       <c r="F25" s="4">
-        <f>ABS((C25-B25)*1440)</f>
+        <f t="shared" si="8"/>
         <v>313</v>
       </c>
     </row>
@@ -1005,30 +1005,108 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="D26" s="3">
-        <f>(C26-B26)* 1440</f>
+        <f t="shared" si="6"/>
         <v>213.99999999999989</v>
       </c>
       <c r="E26" s="4">
-        <f>IF(C26&gt;B26, (C26-B26)*1440, (B26-C26)*1440)</f>
+        <f t="shared" si="7"/>
         <v>213.99999999999989</v>
       </c>
       <c r="F26" s="4">
-        <f>ABS((C26-B26)*1440)</f>
+        <f t="shared" si="8"/>
         <v>213.99999999999989</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43353</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
       <c r="D27" s="3">
-        <f>(C27-B27)* 1440</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <f>IF(C27&gt;B27, (C27-B27)*1440, (B27-C27)*1440)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <f>ABS((C27-B27)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <f>(C28-B28)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <f>IF(C28&gt;B28, (C28-B28)*1440, (B28-C28)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <f>ABS((C28-B28)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43355</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D29" s="3">
+        <f>(C29-B29)* 1440</f>
+        <v>15.000000000000107</v>
+      </c>
+      <c r="E29" s="4">
+        <f>IF(C29&gt;B29, (C29-B29)*1440, (B29-C29)*1440)</f>
+        <v>15.000000000000107</v>
+      </c>
+      <c r="F29" s="4">
+        <f>ABS((C29-B29)*1440)</f>
+        <v>15.000000000000107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43355</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D30" s="3">
+        <f>(C30-B30)* 1440</f>
+        <v>35.000000000000036</v>
+      </c>
+      <c r="E30" s="4">
+        <f>IF(C30&gt;B30, (C30-B30)*1440, (B30-C30)*1440)</f>
+        <v>35.000000000000036</v>
+      </c>
+      <c r="F30" s="4">
+        <f>ABS((C30-B30)*1440)</f>
+        <v>35.000000000000036</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{828CF57E-FC33-4CD8-986F-3E3CCD5F4CD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60611DF8-576E-4981-94D3-076B70A6C2FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6750" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F30" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F30" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F33" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F33" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1109,75 @@
         <v>35.000000000000036</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43356</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="D31" s="3">
+        <f>(C31-B31)* 1440</f>
+        <v>67.999999999999915</v>
+      </c>
+      <c r="E31" s="4">
+        <f>IF(C31&gt;B31, (C31-B31)*1440, (B31-C31)*1440)</f>
+        <v>67.999999999999915</v>
+      </c>
+      <c r="F31" s="4">
+        <f>ABS((C31-B31)*1440)</f>
+        <v>67.999999999999915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43356</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D32" s="3">
+        <f>(C32-B32)* 1440</f>
+        <v>21.999999999999922</v>
+      </c>
+      <c r="E32" s="4">
+        <f>IF(C32&gt;B32, (C32-B32)*1440, (B32-C32)*1440)</f>
+        <v>21.999999999999922</v>
+      </c>
+      <c r="F32" s="4">
+        <f>ABS((C32-B32)*1440)</f>
+        <v>21.999999999999922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43357</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D33" s="3">
+        <f>(C33-B33)* 1440</f>
+        <v>400</v>
+      </c>
+      <c r="E33" s="4">
+        <f>IF(C33&gt;B33, (C33-B33)*1440, (B33-C33)*1440)</f>
+        <v>400</v>
+      </c>
+      <c r="F33" s="4">
+        <f>ABS((C33-B33)*1440)</f>
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60611DF8-576E-4981-94D3-076B70A6C2FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D7C57B9-FBB2-4CEF-AC88-B2164CAF9852}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8100" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F33" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F33" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F36" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F36" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,15 +1051,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <f>(C28-B28)* 1440</f>
+        <f t="shared" ref="D28:D33" si="9">(C28-B28)* 1440</f>
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <f>IF(C28&gt;B28, (C28-B28)*1440, (B28-C28)*1440)</f>
+        <f t="shared" ref="E28:E33" si="10">IF(C28&gt;B28, (C28-B28)*1440, (B28-C28)*1440)</f>
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <f>ABS((C28-B28)*1440)</f>
+        <f t="shared" ref="F28:F33" si="11">ABS((C28-B28)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -1074,15 +1074,15 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D29" s="3">
-        <f>(C29-B29)* 1440</f>
+        <f t="shared" si="9"/>
         <v>15.000000000000107</v>
       </c>
       <c r="E29" s="4">
-        <f>IF(C29&gt;B29, (C29-B29)*1440, (B29-C29)*1440)</f>
+        <f t="shared" si="10"/>
         <v>15.000000000000107</v>
       </c>
       <c r="F29" s="4">
-        <f>ABS((C29-B29)*1440)</f>
+        <f t="shared" si="11"/>
         <v>15.000000000000107</v>
       </c>
     </row>
@@ -1097,15 +1097,15 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D30" s="3">
-        <f>(C30-B30)* 1440</f>
+        <f t="shared" si="9"/>
         <v>35.000000000000036</v>
       </c>
       <c r="E30" s="4">
-        <f>IF(C30&gt;B30, (C30-B30)*1440, (B30-C30)*1440)</f>
+        <f t="shared" si="10"/>
         <v>35.000000000000036</v>
       </c>
       <c r="F30" s="4">
-        <f>ABS((C30-B30)*1440)</f>
+        <f t="shared" si="11"/>
         <v>35.000000000000036</v>
       </c>
     </row>
@@ -1120,15 +1120,15 @@
         <v>0.89097222222222217</v>
       </c>
       <c r="D31" s="3">
-        <f>(C31-B31)* 1440</f>
+        <f t="shared" si="9"/>
         <v>67.999999999999915</v>
       </c>
       <c r="E31" s="4">
-        <f>IF(C31&gt;B31, (C31-B31)*1440, (B31-C31)*1440)</f>
+        <f t="shared" si="10"/>
         <v>67.999999999999915</v>
       </c>
       <c r="F31" s="4">
-        <f>ABS((C31-B31)*1440)</f>
+        <f t="shared" si="11"/>
         <v>67.999999999999915</v>
       </c>
     </row>
@@ -1143,15 +1143,15 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D32" s="3">
-        <f>(C32-B32)* 1440</f>
+        <f t="shared" si="9"/>
         <v>21.999999999999922</v>
       </c>
       <c r="E32" s="4">
-        <f>IF(C32&gt;B32, (C32-B32)*1440, (B32-C32)*1440)</f>
+        <f t="shared" si="10"/>
         <v>21.999999999999922</v>
       </c>
       <c r="F32" s="4">
-        <f>ABS((C32-B32)*1440)</f>
+        <f t="shared" si="11"/>
         <v>21.999999999999922</v>
       </c>
     </row>
@@ -1166,16 +1166,82 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="D33" s="3">
-        <f>(C33-B33)* 1440</f>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="E33" s="4">
-        <f>IF(C33&gt;B33, (C33-B33)*1440, (B33-C33)*1440)</f>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="F33" s="4">
-        <f>ABS((C33-B33)*1440)</f>
+        <f t="shared" si="11"/>
         <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43358</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <f>(C34-B34)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <f>IF(C34&gt;B34, (C34-B34)*1440, (B34-C34)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <f>ABS((C34-B34)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43359</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <f>(C35-B35)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <f>IF(C35&gt;B35, (C35-B35)*1440, (B35-C35)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <f>ABS((C35-B35)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43360</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <f>(C36-B36)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <f>IF(C36&gt;B36, (C36-B36)*1440, (B36-C36)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <f>ABS((C36-B36)*1440)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D7C57B9-FBB2-4CEF-AC88-B2164CAF9852}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29B7BEAE-5E0A-41DB-AFF5-DC2976189DFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8550" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F36" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F36" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F37" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F37" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,6 +1231,9 @@
       <c r="B36" s="1">
         <v>0</v>
       </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
       <c r="D36" s="3">
         <f>(C36-B36)* 1440</f>
         <v>0</v>
@@ -1241,6 +1244,26 @@
       </c>
       <c r="F36" s="4">
         <f>ABS((C36-B36)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <f>(C37-B37)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f>IF(C37&gt;B37, (C37-B37)*1440, (B37-C37)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <f>ABS((C37-B37)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29B7BEAE-5E0A-41DB-AFF5-DC2976189DFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D365489-0171-44D8-A23F-820425AF6F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8550" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F37" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F37" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F38" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F38" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,6 +1254,9 @@
       <c r="B37" s="1">
         <v>0</v>
       </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
       <c r="D37" s="3">
         <f>(C37-B37)* 1440</f>
         <v>0</v>
@@ -1265,6 +1268,29 @@
       <c r="F37" s="4">
         <f>ABS((C37-B37)*1440)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43362</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D38" s="3">
+        <f>(C38-B38)* 1440</f>
+        <v>264</v>
+      </c>
+      <c r="E38" s="4">
+        <f>IF(C38&gt;B38, (C38-B38)*1440, (B38-C38)*1440)</f>
+        <v>264</v>
+      </c>
+      <c r="F38" s="4">
+        <f>ABS((C38-B38)*1440)</f>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D365489-0171-44D8-A23F-820425AF6F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A68E2A-714C-4D25-BE9D-6A5FE55E357A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F38" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F38" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F41" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F41" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,6 +1293,63 @@
         <v>264</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>43363</v>
+      </c>
+      <c r="D39" s="3">
+        <f>(C39-B39)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <f>IF(C39&gt;B39, (C39-B39)*1440, (B39-C39)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <f>ABS((C39-B39)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>43364</v>
+      </c>
+      <c r="D40" s="3">
+        <f>(C40-B40)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f>IF(C40&gt;B40, (C40-B40)*1440, (B40-C40)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <f>ABS((C40-B40)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43365</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D41" s="3">
+        <f>(C41-B41)* 1440</f>
+        <v>292.99999999999994</v>
+      </c>
+      <c r="E41" s="4">
+        <f>IF(C41&gt;B41, (C41-B41)*1440, (B41-C41)*1440)</f>
+        <v>292.99999999999994</v>
+      </c>
+      <c r="F41" s="4">
+        <f>ABS((C41-B41)*1440)</f>
+        <v>292.99999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A68E2A-714C-4D25-BE9D-6A5FE55E357A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A45E38-BAAE-4463-BD2B-1AC2241FEC17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F41" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F41" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F43" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F43" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,15 +1189,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <f>(C34-B34)* 1440</f>
+        <f t="shared" ref="D34:D41" si="12">(C34-B34)* 1440</f>
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <f>IF(C34&gt;B34, (C34-B34)*1440, (B34-C34)*1440)</f>
+        <f t="shared" ref="E34:E41" si="13">IF(C34&gt;B34, (C34-B34)*1440, (B34-C34)*1440)</f>
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <f>ABS((C34-B34)*1440)</f>
+        <f t="shared" ref="F34:F41" si="14">ABS((C34-B34)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -1212,15 +1212,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="3">
-        <f>(C35-B35)* 1440</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <f>IF(C35&gt;B35, (C35-B35)*1440, (B35-C35)*1440)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f>ABS((C35-B35)*1440)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1235,15 +1235,15 @@
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <f>(C36-B36)* 1440</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <f>IF(C36&gt;B36, (C36-B36)*1440, (B36-C36)*1440)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <f>ABS((C36-B36)*1440)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1258,15 +1258,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <f>(C37-B37)* 1440</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <f>IF(C37&gt;B37, (C37-B37)*1440, (B37-C37)*1440)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <f>ABS((C37-B37)*1440)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1281,15 +1281,15 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D38" s="3">
-        <f>(C38-B38)* 1440</f>
+        <f t="shared" si="12"/>
         <v>264</v>
       </c>
       <c r="E38" s="4">
-        <f>IF(C38&gt;B38, (C38-B38)*1440, (B38-C38)*1440)</f>
+        <f t="shared" si="13"/>
         <v>264</v>
       </c>
       <c r="F38" s="4">
-        <f>ABS((C38-B38)*1440)</f>
+        <f t="shared" si="14"/>
         <v>264</v>
       </c>
     </row>
@@ -1298,15 +1298,15 @@
         <v>43363</v>
       </c>
       <c r="D39" s="3">
-        <f>(C39-B39)* 1440</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <f>IF(C39&gt;B39, (C39-B39)*1440, (B39-C39)*1440)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f>ABS((C39-B39)*1440)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1315,15 +1315,15 @@
         <v>43364</v>
       </c>
       <c r="D40" s="3">
-        <f>(C40-B40)* 1440</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <f>IF(C40&gt;B40, (C40-B40)*1440, (B40-C40)*1440)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <f>ABS((C40-B40)*1440)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1335,19 +1335,59 @@
         <v>0.79583333333333339</v>
       </c>
       <c r="C41" s="1">
-        <v>0.99930555555555556</v>
+        <v>0.94027777777777777</v>
       </c>
       <c r="D41" s="3">
-        <f>(C41-B41)* 1440</f>
-        <v>292.99999999999994</v>
+        <f t="shared" si="12"/>
+        <v>207.99999999999989</v>
       </c>
       <c r="E41" s="4">
-        <f>IF(C41&gt;B41, (C41-B41)*1440, (B41-C41)*1440)</f>
-        <v>292.99999999999994</v>
+        <f t="shared" si="13"/>
+        <v>207.99999999999989</v>
       </c>
       <c r="F41" s="4">
-        <f>ABS((C41-B41)*1440)</f>
-        <v>292.99999999999994</v>
+        <f t="shared" si="14"/>
+        <v>207.99999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43366</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="D42" s="3">
+        <f>(C42-B42)* 1440</f>
+        <v>496.00000000000006</v>
+      </c>
+      <c r="E42" s="4">
+        <f>IF(C42&gt;B42, (C42-B42)*1440, (B42-C42)*1440)</f>
+        <v>496.00000000000006</v>
+      </c>
+      <c r="F42" s="4">
+        <f>ABS((C42-B42)*1440)</f>
+        <v>496.00000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43367</v>
+      </c>
+      <c r="D43" s="3">
+        <f>(C43-B43)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <f>IF(C43&gt;B43, (C43-B43)*1440, (B43-C43)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <f>ABS((C43-B43)*1440)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A45E38-BAAE-4463-BD2B-1AC2241FEC17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D702CB4-F292-4932-A851-DD35E573755E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F43" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F43" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F50" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F50" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,6 +1390,140 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43368</v>
+      </c>
+      <c r="D44" s="3">
+        <f>(C44-B44)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <f>IF(C44&gt;B44, (C44-B44)*1440, (B44-C44)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <f>ABS((C44-B44)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43369</v>
+      </c>
+      <c r="D45" s="3">
+        <f>(C45-B45)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <f>IF(C45&gt;B45, (C45-B45)*1440, (B45-C45)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <f>ABS((C45-B45)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43370</v>
+      </c>
+      <c r="D46" s="3">
+        <f>(C46-B46)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <f>IF(C46&gt;B46, (C46-B46)*1440, (B46-C46)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <f>ABS((C46-B46)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <f>(C47-B47)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <f>IF(C47&gt;B47, (C47-B47)*1440, (B47-C47)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <f>ABS((C47-B47)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43372</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <f>(C48-B48)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <f>IF(C48&gt;B48, (C48-B48)*1440, (B48-C48)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <f>ABS((C48-B48)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <f>(C49-B49)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <f>IF(C49&gt;B49, (C49-B49)*1440, (B49-C49)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <f>ABS((C49-B49)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <f>(C50-B50)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <f>IF(C50&gt;B50, (C50-B50)*1440, (B50-C50)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <f>ABS((C50-B50)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D702CB4-F292-4932-A851-DD35E573755E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67CB03-F91C-405C-A903-C997EF296ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F50" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F50" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F51" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F51" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,23 +1297,35 @@
       <c r="A39" s="2">
         <v>43363</v>
       </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.36319444444444443</v>
+      </c>
       <c r="D39" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43364</v>
       </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
       <c r="D40" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -1361,15 +1373,15 @@
         <v>0.3444444444444445</v>
       </c>
       <c r="D42" s="3">
-        <f>(C42-B42)* 1440</f>
+        <f t="shared" ref="D42:D50" si="15">(C42-B42)* 1440</f>
         <v>496.00000000000006</v>
       </c>
       <c r="E42" s="4">
-        <f>IF(C42&gt;B42, (C42-B42)*1440, (B42-C42)*1440)</f>
+        <f t="shared" ref="E42:E50" si="16">IF(C42&gt;B42, (C42-B42)*1440, (B42-C42)*1440)</f>
         <v>496.00000000000006</v>
       </c>
       <c r="F42" s="4">
-        <f>ABS((C42-B42)*1440)</f>
+        <f t="shared" ref="F42:F50" si="17">ABS((C42-B42)*1440)</f>
         <v>496.00000000000006</v>
       </c>
     </row>
@@ -1377,16 +1389,22 @@
       <c r="A43" s="2">
         <v>43367</v>
       </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
       <c r="D43" s="3">
-        <f>(C43-B43)* 1440</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f>IF(C43&gt;B43, (C43-B43)*1440, (B43-C43)*1440)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f>ABS((C43-B43)*1440)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1394,51 +1412,69 @@
       <c r="A44" s="2">
         <v>43368</v>
       </c>
+      <c r="B44" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.65069444444444446</v>
+      </c>
       <c r="D44" s="3">
-        <f>(C44-B44)* 1440</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>317</v>
       </c>
       <c r="E44" s="4">
-        <f>IF(C44&gt;B44, (C44-B44)*1440, (B44-C44)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>317</v>
       </c>
       <c r="F44" s="4">
-        <f>ABS((C44-B44)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43369</v>
       </c>
+      <c r="B45" s="1">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D45" s="3">
-        <f>(C45-B45)* 1440</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>348.99999999999989</v>
       </c>
       <c r="E45" s="4">
-        <f>IF(C45&gt;B45, (C45-B45)*1440, (B45-C45)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>348.99999999999989</v>
       </c>
       <c r="F45" s="4">
-        <f>ABS((C45-B45)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>348.99999999999989</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43370</v>
       </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="D46" s="3">
-        <f>(C46-B46)* 1440</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>578</v>
       </c>
       <c r="E46" s="4">
-        <f>IF(C46&gt;B46, (C46-B46)*1440, (B46-C46)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>578</v>
       </c>
       <c r="F46" s="4">
-        <f>ABS((C46-B46)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,22 +1482,22 @@
         <v>43371</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>0.46736111111111112</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>0.67986111111111114</v>
       </c>
       <c r="D47" s="3">
-        <f>(C47-B47)* 1440</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>306.00000000000006</v>
       </c>
       <c r="E47" s="4">
-        <f>IF(C47&gt;B47, (C47-B47)*1440, (B47-C47)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>306.00000000000006</v>
       </c>
       <c r="F47" s="4">
-        <f>ABS((C47-B47)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>306.00000000000006</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,15 +1511,15 @@
         <v>0</v>
       </c>
       <c r="D48" s="3">
-        <f>(C48-B48)* 1440</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E48" s="4">
-        <f>IF(C48&gt;B48, (C48-B48)*1440, (B48-C48)*1440)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F48" s="4">
-        <f>ABS((C48-B48)*1440)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1498,29 +1534,55 @@
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <f>(C49-B49)* 1440</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <f>IF(C49&gt;B49, (C49-B49)*1440, (B49-C49)*1440)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F49" s="4">
-        <f>ABS((C49-B49)*1440)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D50" s="3">
-        <f>(C50-B50)* 1440</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>261.00000000000006</v>
       </c>
       <c r="E50" s="4">
-        <f>IF(C50&gt;B50, (C50-B50)*1440, (B50-C50)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>261.00000000000006</v>
       </c>
       <c r="F50" s="4">
-        <f>ABS((C50-B50)*1440)</f>
+        <f t="shared" si="17"/>
+        <v>261.00000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D51" s="3">
+        <f>(C51-B51)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <f>IF(C51&gt;B51, (C51-B51)*1440, (B51-C51)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <f>ABS((C51-B51)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67CB03-F91C-405C-A903-C997EF296ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7541B78-B6B7-4E79-A445-84F47F2AF815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F51" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F51" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F52" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F52" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,16 +1573,39 @@
       <c r="A51" s="2">
         <v>43375</v>
       </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.3354166666666667</v>
+      </c>
       <c r="D51" s="3">
         <f>(C51-B51)* 1440</f>
-        <v>0</v>
+        <v>483.00000000000006</v>
       </c>
       <c r="E51" s="4">
         <f>IF(C51&gt;B51, (C51-B51)*1440, (B51-C51)*1440)</f>
-        <v>0</v>
+        <v>483.00000000000006</v>
       </c>
       <c r="F51" s="4">
         <f>ABS((C51-B51)*1440)</f>
+        <v>483.00000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D52" s="3">
+        <f>(C52-B52)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <f>IF(C52&gt;B52, (C52-B52)*1440, (B52-C52)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <f>ABS((C52-B52)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7541B78-B6B7-4E79-A445-84F47F2AF815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DECB62-E55F-4833-BD53-ABC1C1F12C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F52" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F52" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F56" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F56" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,6 +1609,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D53" s="3">
+        <f>(C53-B53)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <f>IF(C53&gt;B53, (C53-B53)*1440, (B53-C53)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <f>ABS((C53-B53)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D54" s="3">
+        <f>(C54-B54)* 1440</f>
+        <v>324.00000000000011</v>
+      </c>
+      <c r="E54" s="4">
+        <f>IF(C54&gt;B54, (C54-B54)*1440, (B54-C54)*1440)</f>
+        <v>324.00000000000011</v>
+      </c>
+      <c r="F54" s="4">
+        <f>ABS((C54-B54)*1440)</f>
+        <v>324.00000000000011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43379</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="D55" s="3">
+        <f>(C55-B55)* 1440</f>
+        <v>454</v>
+      </c>
+      <c r="E55" s="4">
+        <f>IF(C55&gt;B55, (C55-B55)*1440, (B55-C55)*1440)</f>
+        <v>454</v>
+      </c>
+      <c r="F55" s="4">
+        <f>ABS((C55-B55)*1440)</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43380</v>
+      </c>
+      <c r="D56" s="3">
+        <f>(C56-B56)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <f>IF(C56&gt;B56, (C56-B56)*1440, (B56-C56)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <f>ABS((C56-B56)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DECB62-E55F-4833-BD53-ABC1C1F12C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B870C7-175A-40AD-BA33-C377D3D522D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F56" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F56" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F57" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F57" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,19 +542,19 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="C6" s="1">
-        <v>0.49998842592592596</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="2"/>
-        <v>-410.01666666666659</v>
+        <v>309</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>410.01666666666659</v>
+        <v>309</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>410.01666666666659</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,19 +634,19 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="C10" s="1">
-        <v>0.49998842592592596</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="2"/>
-        <v>-415.01666666666677</v>
+        <v>303.99999999999989</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>415.01666666666677</v>
+        <v>303.99999999999989</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>415.01666666666677</v>
+        <v>303.99999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,15 +1580,15 @@
         <v>0.3354166666666667</v>
       </c>
       <c r="D51" s="3">
-        <f>(C51-B51)* 1440</f>
+        <f t="shared" ref="D51:D56" si="18">(C51-B51)* 1440</f>
         <v>483.00000000000006</v>
       </c>
       <c r="E51" s="4">
-        <f>IF(C51&gt;B51, (C51-B51)*1440, (B51-C51)*1440)</f>
+        <f t="shared" ref="E51:E56" si="19">IF(C51&gt;B51, (C51-B51)*1440, (B51-C51)*1440)</f>
         <v>483.00000000000006</v>
       </c>
       <c r="F51" s="4">
-        <f>ABS((C51-B51)*1440)</f>
+        <f t="shared" ref="F51:F56" si="20">ABS((C51-B51)*1440)</f>
         <v>483.00000000000006</v>
       </c>
     </row>
@@ -1596,16 +1596,22 @@
       <c r="A52" s="2">
         <v>43376</v>
       </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
       <c r="D52" s="3">
-        <f>(C52-B52)* 1440</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E52" s="4">
-        <f>IF(C52&gt;B52, (C52-B52)*1440, (B52-C52)*1440)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F52" s="4">
-        <f>ABS((C52-B52)*1440)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -1613,16 +1619,22 @@
       <c r="A53" s="2">
         <v>43377</v>
       </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
       <c r="D53" s="3">
-        <f>(C53-B53)* 1440</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E53" s="4">
-        <f>IF(C53&gt;B53, (C53-B53)*1440, (B53-C53)*1440)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <f>ABS((C53-B53)*1440)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -1637,15 +1649,15 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D54" s="3">
-        <f>(C54-B54)* 1440</f>
+        <f t="shared" si="18"/>
         <v>324.00000000000011</v>
       </c>
       <c r="E54" s="4">
-        <f>IF(C54&gt;B54, (C54-B54)*1440, (B54-C54)*1440)</f>
+        <f t="shared" si="19"/>
         <v>324.00000000000011</v>
       </c>
       <c r="F54" s="4">
-        <f>ABS((C54-B54)*1440)</f>
+        <f t="shared" si="20"/>
         <v>324.00000000000011</v>
       </c>
     </row>
@@ -1660,15 +1672,15 @@
         <v>0.31527777777777777</v>
       </c>
       <c r="D55" s="3">
-        <f>(C55-B55)* 1440</f>
+        <f t="shared" si="18"/>
         <v>454</v>
       </c>
       <c r="E55" s="4">
-        <f>IF(C55&gt;B55, (C55-B55)*1440, (B55-C55)*1440)</f>
+        <f t="shared" si="19"/>
         <v>454</v>
       </c>
       <c r="F55" s="4">
-        <f>ABS((C55-B55)*1440)</f>
+        <f t="shared" si="20"/>
         <v>454</v>
       </c>
     </row>
@@ -1676,16 +1688,39 @@
       <c r="A56" s="2">
         <v>43380</v>
       </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
       <c r="D56" s="3">
-        <f>(C56-B56)* 1440</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E56" s="4">
-        <f>IF(C56&gt;B56, (C56-B56)*1440, (B56-C56)*1440)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F56" s="4">
-        <f>ABS((C56-B56)*1440)</f>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D57" s="3">
+        <f>(C57-B57)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <f>IF(C57&gt;B57, (C57-B57)*1440, (B57-C57)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <f>ABS((C57-B57)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B870C7-175A-40AD-BA33-C377D3D522D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E3019-662B-4571-892B-F30C7AAC7030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,27 +1689,30 @@
         <v>43380</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>209.00000000000006</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>209.00000000000006</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>209.00000000000006</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43381</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
       </c>
       <c r="D57" s="3">
         <f>(C57-B57)* 1440</f>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E3019-662B-4571-892B-F30C7AAC7030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45257E3A-AD66-4F2C-B5F6-41BC1210468F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F57" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F57" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F58" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F58" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,19 +1692,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C56" s="1">
-        <v>0.99930555555555556</v>
+        <v>0.875</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="18"/>
-        <v>209.00000000000006</v>
+        <v>30.000000000000053</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="19"/>
-        <v>209.00000000000006</v>
+        <v>30.000000000000053</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" si="20"/>
-        <v>209.00000000000006</v>
+        <v>30.000000000000053</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,6 +1714,9 @@
       <c r="B57" s="1">
         <v>0</v>
       </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
       <c r="D57" s="3">
         <f>(C57-B57)* 1440</f>
         <v>0</v>
@@ -1724,6 +1727,23 @@
       </c>
       <c r="F57" s="4">
         <f>ABS((C57-B57)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43382</v>
+      </c>
+      <c r="D58" s="3">
+        <f>(C58-B58)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <f>IF(C58&gt;B58, (C58-B58)*1440, (B58-C58)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <f>ABS((C58-B58)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45257E3A-AD66-4F2C-B5F6-41BC1210468F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66B487-076F-4F68-9B4D-9F2C76149ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F58" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F58" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F59" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F59" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,6 +1734,12 @@
       <c r="A58" s="2">
         <v>43382</v>
       </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
       <c r="D58" s="3">
         <f>(C58-B58)* 1440</f>
         <v>0</v>
@@ -1744,6 +1750,20 @@
       </c>
       <c r="F58" s="4">
         <f>ABS((C58-B58)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <f>(C59-B59)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <f>IF(C59&gt;B59, (C59-B59)*1440, (B59-C59)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <f>ABS((C59-B59)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66B487-076F-4F68-9B4D-9F2C76149ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF544B7-5B5A-4E8D-BB28-EBC411541434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F59" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F59" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F65" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F65" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,6 +1754,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43383</v>
+      </c>
       <c r="D59" s="3">
         <f>(C59-B59)* 1440</f>
         <v>0</v>
@@ -1764,6 +1767,117 @@
       </c>
       <c r="F59" s="4">
         <f>ABS((C59-B59)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" ref="D60:D61" si="21">(C60-B60)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" ref="E60:E61" si="22">IF(C60&gt;B60, (C60-B60)*1440, (B60-C60)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" ref="F60:F61" si="23">ABS((C60-B60)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43385</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43386</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" ref="D62:D65" si="24">(C62-B62)* 1440</f>
+        <v>373.99999999999994</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" ref="E62:E65" si="25">IF(C62&gt;B62, (C62-B62)*1440, (B62-C62)*1440)</f>
+        <v>373.99999999999994</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" ref="F62:F65" si="26">ABS((C62-B62)*1440)</f>
+        <v>373.99999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43387</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43388</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>43389</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF544B7-5B5A-4E8D-BB28-EBC411541434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A9EFF-C5A4-4B08-9C1A-32BD3EC79B4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F65" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F65" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F66" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F66" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,23 +1834,32 @@
       <c r="B63" s="1">
         <v>0</v>
       </c>
+      <c r="C63" s="1">
+        <v>0.24027777777777778</v>
+      </c>
       <c r="D63" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43388</v>
       </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
       <c r="D64" s="3">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -1868,16 +1877,42 @@
       <c r="A65" s="2">
         <v>43389</v>
       </c>
+      <c r="B65" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D65" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>373.99999999999994</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>373.99999999999994</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" si="26"/>
+        <v>373.99999999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <f>(C66-B66)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <f>IF(C66&gt;B66, (C66-B66)*1440, (B66-C66)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <f>ABS((C66-B66)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A9EFF-C5A4-4B08-9C1A-32BD3EC79B4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E394A-95F2-405B-9FEA-0AE28EB4F289}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15300" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F66" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F66" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F68" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F68" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,16 +1903,59 @@
       <c r="B66" s="1">
         <v>0</v>
       </c>
+      <c r="C66" s="1">
+        <v>0.32708333333333334</v>
+      </c>
       <c r="D66" s="3">
         <f>(C66-B66)* 1440</f>
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="E66" s="4">
         <f>IF(C66&gt;B66, (C66-B66)*1440, (B66-C66)*1440)</f>
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="F66" s="4">
         <f>ABS((C66-B66)*1440)</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <f>(C67-B67)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <f>IF(C67&gt;B67, (C67-B67)*1440, (B67-C67)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <f>ABS((C67-B67)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>43392</v>
+      </c>
+      <c r="D68" s="3">
+        <f>(C68-B68)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <f>IF(C68&gt;B68, (C68-B68)*1440, (B68-C68)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <f>ABS((C68-B68)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E394A-95F2-405B-9FEA-0AE28EB4F289}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9674419-1997-4739-B8C6-8491D8042CB5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15300" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15750" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F68" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F68" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F70" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F70" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,16 +1946,59 @@
       <c r="A68" s="2">
         <v>43392</v>
       </c>
+      <c r="B68" s="1">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.96944444444444444</v>
+      </c>
       <c r="D68" s="3">
         <f>(C68-B68)* 1440</f>
-        <v>0</v>
+        <v>278.99999999999994</v>
       </c>
       <c r="E68" s="4">
         <f>IF(C68&gt;B68, (C68-B68)*1440, (B68-C68)*1440)</f>
-        <v>0</v>
+        <v>278.99999999999994</v>
       </c>
       <c r="F68" s="4">
         <f>ABS((C68-B68)*1440)</f>
+        <v>278.99999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>43393</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <f>(C69-B69)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <f>IF(C69&gt;B69, (C69-B69)*1440, (B69-C69)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <f>ABS((C69-B69)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="3">
+        <f>(C70-B70)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <f>IF(C70&gt;B70, (C70-B70)*1440, (B70-C70)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <f>ABS((C70-B70)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9674419-1997-4739-B8C6-8491D8042CB5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B890C5E-F892-42C5-8D51-F1843B667C7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15750" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F70" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F70" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F71" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F71" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,16 +1989,42 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.69652777777777775</v>
+      </c>
       <c r="D70" s="3">
         <f>(C70-B70)* 1440</f>
-        <v>0</v>
+        <v>449.99999999999994</v>
       </c>
       <c r="E70" s="4">
         <f>IF(C70&gt;B70, (C70-B70)*1440, (B70-C70)*1440)</f>
-        <v>0</v>
+        <v>449.99999999999994</v>
       </c>
       <c r="F70" s="4">
         <f>ABS((C70-B70)*1440)</f>
+        <v>449.99999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43395</v>
+      </c>
+      <c r="D71" s="3">
+        <f>(C71-B71)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <f>IF(C71&gt;B71, (C71-B71)*1440, (B71-C71)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <f>ABS((C71-B71)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B890C5E-F892-42C5-8D51-F1843B667C7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF6EE9-9955-43D9-83E9-564658303F6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16650" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F71" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F71" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F78" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F78" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,15 +1907,15 @@
         <v>0.32708333333333334</v>
       </c>
       <c r="D66" s="3">
-        <f>(C66-B66)* 1440</f>
+        <f t="shared" ref="D66:D71" si="27">(C66-B66)* 1440</f>
         <v>471</v>
       </c>
       <c r="E66" s="4">
-        <f>IF(C66&gt;B66, (C66-B66)*1440, (B66-C66)*1440)</f>
+        <f t="shared" ref="E66:E71" si="28">IF(C66&gt;B66, (C66-B66)*1440, (B66-C66)*1440)</f>
         <v>471</v>
       </c>
       <c r="F66" s="4">
-        <f>ABS((C66-B66)*1440)</f>
+        <f t="shared" ref="F66:F71" si="29">ABS((C66-B66)*1440)</f>
         <v>471</v>
       </c>
     </row>
@@ -1930,15 +1930,15 @@
         <v>0</v>
       </c>
       <c r="D67" s="3">
-        <f>(C67-B67)* 1440</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E67" s="4">
-        <f>IF(C67&gt;B67, (C67-B67)*1440, (B67-C67)*1440)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F67" s="4">
-        <f>ABS((C67-B67)*1440)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -1953,15 +1953,15 @@
         <v>0.96944444444444444</v>
       </c>
       <c r="D68" s="3">
-        <f>(C68-B68)* 1440</f>
+        <f t="shared" si="27"/>
         <v>278.99999999999994</v>
       </c>
       <c r="E68" s="4">
-        <f>IF(C68&gt;B68, (C68-B68)*1440, (B68-C68)*1440)</f>
+        <f t="shared" si="28"/>
         <v>278.99999999999994</v>
       </c>
       <c r="F68" s="4">
-        <f>ABS((C68-B68)*1440)</f>
+        <f t="shared" si="29"/>
         <v>278.99999999999994</v>
       </c>
     </row>
@@ -1976,15 +1976,15 @@
         <v>0</v>
       </c>
       <c r="D69" s="3">
-        <f>(C69-B69)* 1440</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E69" s="4">
-        <f>IF(C69&gt;B69, (C69-B69)*1440, (B69-C69)*1440)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F69" s="4">
-        <f>ABS((C69-B69)*1440)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -1999,15 +1999,15 @@
         <v>0.69652777777777775</v>
       </c>
       <c r="D70" s="3">
-        <f>(C70-B70)* 1440</f>
+        <f t="shared" si="27"/>
         <v>449.99999999999994</v>
       </c>
       <c r="E70" s="4">
-        <f>IF(C70&gt;B70, (C70-B70)*1440, (B70-C70)*1440)</f>
+        <f t="shared" si="28"/>
         <v>449.99999999999994</v>
       </c>
       <c r="F70" s="4">
-        <f>ABS((C70-B70)*1440)</f>
+        <f t="shared" si="29"/>
         <v>449.99999999999994</v>
       </c>
     </row>
@@ -2016,15 +2016,140 @@
         <v>43395</v>
       </c>
       <c r="D71" s="3">
-        <f>(C71-B71)* 1440</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E71" s="4">
-        <f>IF(C71&gt;B71, (C71-B71)*1440, (B71-C71)*1440)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F71" s="4">
-        <f>ABS((C71-B71)*1440)</f>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>43396</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" ref="D72:D78" si="30">(C72-B72)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" ref="E72:E78" si="31">IF(C72&gt;B72, (C72-B72)*1440, (B72-C72)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" ref="F72:F78" si="32">ABS((C72-B72)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>43397</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="30"/>
+        <v>256.00000000000006</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="31"/>
+        <v>256.00000000000006</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="32"/>
+        <v>256.00000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>43399</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>43400</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>43401</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>43402</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF6EE9-9955-43D9-83E9-564658303F6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F07BB3-61ED-4E1F-8770-EB2CE64CA340}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16650" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="17100" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,17 +2089,23 @@
       <c r="A75" s="2">
         <v>43399</v>
       </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.34166666666666662</v>
+      </c>
       <c r="D75" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>491.99999999999994</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>491.99999999999994</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>491.99999999999994</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F07BB3-61ED-4E1F-8770-EB2CE64CA340}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C82BD-60B5-4AE6-89EF-760A781ACDB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17100" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="17550" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F78" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F78" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F79" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F79" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,6 +1774,12 @@
       <c r="A60" s="2">
         <v>43384</v>
       </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
       <c r="D60" s="3">
         <f t="shared" ref="D60:D61" si="21">(C60-B60)* 1440</f>
         <v>0</v>
@@ -2032,6 +2038,12 @@
       <c r="A72" s="2">
         <v>43396</v>
       </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
       <c r="D72" s="3">
         <f t="shared" ref="D72:D78" si="30">(C72-B72)* 1440</f>
         <v>0</v>
@@ -2112,6 +2124,12 @@
       <c r="A76" s="2">
         <v>43400</v>
       </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
       <c r="D76" s="3">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -2129,6 +2147,12 @@
       <c r="A77" s="2">
         <v>43401</v>
       </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
       <c r="D77" s="3">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -2146,6 +2170,12 @@
       <c r="A78" s="2">
         <v>43402</v>
       </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
       <c r="D78" s="3">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -2156,6 +2186,23 @@
       </c>
       <c r="F78" s="4">
         <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>43403</v>
+      </c>
+      <c r="D79" s="3">
+        <f>(C79-B79)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <f>IF(C79&gt;B79, (C79-B79)*1440, (B79-C79)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <f>ABS((C79-B79)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C82BD-60B5-4AE6-89EF-760A781ACDB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E2516-99EF-4E3F-916F-3BF8DB9868E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17550" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="18000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F79" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F79" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F90" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F90" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,6 +2193,12 @@
       <c r="A79" s="2">
         <v>43403</v>
       </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
       <c r="D79" s="3">
         <f>(C79-B79)* 1440</f>
         <v>0</v>
@@ -2203,6 +2209,232 @@
       </c>
       <c r="F79" s="4">
         <f>ABS((C79-B79)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3">
+        <f>(C80-B80)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <f>IF(C80&gt;B80, (C80-B80)*1440, (B80-C80)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <f>ABS((C80-B80)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <f>(C81-B81)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <f>IF(C81&gt;B81, (C81-B81)*1440, (B81-C81)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <f>ABS((C81-B81)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <f>(C82-B82)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <f>IF(C82&gt;B82, (C82-B82)*1440, (B82-C82)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <f>ABS((C82-B82)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>43407</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <f>(C83-B83)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <f>IF(C83&gt;B83, (C83-B83)*1440, (B83-C83)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <f>ABS((C83-B83)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>43408</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <f>(C84-B84)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <f>IF(C84&gt;B84, (C84-B84)*1440, (B84-C84)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <f>ABS((C84-B84)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" ref="D85:D90" si="33">(C85-B85)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" ref="E85:E90" si="34">IF(C85&gt;B85, (C85-B85)*1440, (B85-C85)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" ref="F85:F90" si="35">ABS((C85-B85)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="33"/>
+        <v>-1116</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="34"/>
+        <v>1116</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" si="35"/>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>43412</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>43413</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>43414</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E2516-99EF-4E3F-916F-3BF8DB9868E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F2415-E4EC-4681-A7B1-EE098D6F0657}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="18450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,15 +2200,15 @@
         <v>0</v>
       </c>
       <c r="D79" s="3">
-        <f>(C79-B79)* 1440</f>
+        <f t="shared" ref="D79:D84" si="33">(C79-B79)* 1440</f>
         <v>0</v>
       </c>
       <c r="E79" s="4">
-        <f>IF(C79&gt;B79, (C79-B79)*1440, (B79-C79)*1440)</f>
+        <f t="shared" ref="E79:E84" si="34">IF(C79&gt;B79, (C79-B79)*1440, (B79-C79)*1440)</f>
         <v>0</v>
       </c>
       <c r="F79" s="4">
-        <f>ABS((C79-B79)*1440)</f>
+        <f t="shared" ref="F79:F84" si="35">ABS((C79-B79)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -2223,15 +2223,15 @@
         <v>0</v>
       </c>
       <c r="D80" s="3">
-        <f>(C80-B80)* 1440</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E80" s="4">
-        <f>IF(C80&gt;B80, (C80-B80)*1440, (B80-C80)*1440)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F80" s="4">
-        <f>ABS((C80-B80)*1440)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2246,15 +2246,15 @@
         <v>0</v>
       </c>
       <c r="D81" s="3">
-        <f>(C81-B81)* 1440</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E81" s="4">
-        <f>IF(C81&gt;B81, (C81-B81)*1440, (B81-C81)*1440)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F81" s="4">
-        <f>ABS((C81-B81)*1440)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2269,15 +2269,15 @@
         <v>0</v>
       </c>
       <c r="D82" s="3">
-        <f>(C82-B82)* 1440</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E82" s="4">
-        <f>IF(C82&gt;B82, (C82-B82)*1440, (B82-C82)*1440)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F82" s="4">
-        <f>ABS((C82-B82)*1440)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2292,15 +2292,15 @@
         <v>0</v>
       </c>
       <c r="D83" s="3">
-        <f>(C83-B83)* 1440</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E83" s="4">
-        <f>IF(C83&gt;B83, (C83-B83)*1440, (B83-C83)*1440)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F83" s="4">
-        <f>ABS((C83-B83)*1440)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2315,15 +2315,15 @@
         <v>0</v>
       </c>
       <c r="D84" s="3">
-        <f>(C84-B84)* 1440</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E84" s="4">
-        <f>IF(C84&gt;B84, (C84-B84)*1440, (B84-C84)*1440)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F84" s="4">
-        <f>ABS((C84-B84)*1440)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2338,15 +2338,15 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D90" si="33">(C85-B85)* 1440</f>
+        <f t="shared" ref="D85:D90" si="36">(C85-B85)* 1440</f>
         <v>0</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" ref="E85:E90" si="34">IF(C85&gt;B85, (C85-B85)*1440, (B85-C85)*1440)</f>
+        <f t="shared" ref="E85:E90" si="37">IF(C85&gt;B85, (C85-B85)*1440, (B85-C85)*1440)</f>
         <v>0</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" ref="F85:F90" si="35">ABS((C85-B85)*1440)</f>
+        <f t="shared" ref="F85:F90" si="38">ABS((C85-B85)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -2357,34 +2357,43 @@
       <c r="B86" s="1">
         <v>0.77500000000000002</v>
       </c>
+      <c r="C86" s="1">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D86" s="3">
-        <f t="shared" si="33"/>
-        <v>-1116</v>
+        <f t="shared" si="36"/>
+        <v>323</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="34"/>
-        <v>1116</v>
+        <f t="shared" si="37"/>
+        <v>323</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="35"/>
-        <v>1116</v>
+        <f t="shared" si="38"/>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43411</v>
       </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.34513888888888888</v>
+      </c>
       <c r="D87" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>497</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>497</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2392,15 +2401,15 @@
         <v>43412</v>
       </c>
       <c r="D88" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -2409,15 +2418,15 @@
         <v>43413</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -2426,15 +2435,15 @@
         <v>43414</v>
       </c>
       <c r="D90" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F2415-E4EC-4681-A7B1-EE098D6F0657}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA98D162-B77B-481A-BAC5-BDE1E80F94CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="18900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,6 +2400,12 @@
       <c r="A88" s="2">
         <v>43412</v>
       </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
       <c r="D88" s="3">
         <f t="shared" si="36"/>
         <v>0</v>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA98D162-B77B-481A-BAC5-BDE1E80F94CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE822F7-1852-49F6-8C5B-9D53457230FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="19350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F90" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F90" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F91" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F91" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,33 +2423,62 @@
       <c r="A89" s="2">
         <v>43413</v>
       </c>
+      <c r="B89" s="1">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D89" s="3">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>279.00000000000011</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>279.00000000000011</v>
       </c>
       <c r="F89" s="4">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>279.00000000000011</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43414</v>
       </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="D90" s="3">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="F90" s="4">
         <f t="shared" si="38"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>43415</v>
+      </c>
+      <c r="D91" s="3">
+        <f>(C91-B91)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <f>IF(C91&gt;B91, (C91-B91)*1440, (B91-C91)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <f>ABS((C91-B91)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE822F7-1852-49F6-8C5B-9D53457230FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B781F6-C177-4792-BB19-4E363D9664F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="19800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F91" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F91" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F92" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F92" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,6 +2469,12 @@
       <c r="A91" s="2">
         <v>43415</v>
       </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
       <c r="D91" s="3">
         <f>(C91-B91)* 1440</f>
         <v>0</v>
@@ -2479,6 +2485,23 @@
       </c>
       <c r="F91" s="4">
         <f>ABS((C91-B91)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>43416</v>
+      </c>
+      <c r="D92" s="3">
+        <f>(C92-B92)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <f>IF(C92&gt;B92, (C92-B92)*1440, (B92-C92)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <f>ABS((C92-B92)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B781F6-C177-4792-BB19-4E363D9664F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF5847-1D28-44A6-B20E-369259C21CA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="20250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F92" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F92" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F93" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F93" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,6 +2492,12 @@
       <c r="A92" s="2">
         <v>43416</v>
       </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
       <c r="D92" s="3">
         <f>(C92-B92)* 1440</f>
         <v>0</v>
@@ -2502,6 +2508,23 @@
       </c>
       <c r="F92" s="4">
         <f>ABS((C92-B92)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>43417</v>
+      </c>
+      <c r="D93" s="3">
+        <f>(C93-B93)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <f>IF(C93&gt;B93, (C93-B93)*1440, (B93-C93)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <f>ABS((C93-B93)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF5847-1D28-44A6-B20E-369259C21CA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA000C-3291-453E-A612-BAFB865EFF7D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="20700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F93" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F93" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F116" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F116" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,6 +2515,12 @@
       <c r="A93" s="2">
         <v>43417</v>
       </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
       <c r="D93" s="3">
         <f>(C93-B93)* 1440</f>
         <v>0</v>
@@ -2525,6 +2531,421 @@
       </c>
       <c r="F93" s="4">
         <f>ABS((C93-B93)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
+        <f>(C94-B94)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <f>IF(C94&gt;B94, (C94-B94)*1440, (B94-C94)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <f>ABS((C94-B94)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3">
+        <f>(C95-B95)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <f>IF(C95&gt;B95, (C95-B95)*1440, (B95-C95)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <f>ABS((C95-B95)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>43420</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <f>(C96-B96)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <f>IF(C96&gt;B96, (C96-B96)*1440, (B96-C96)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <f>ABS((C96-B96)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>43421</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <f>(C97-B97)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <f>IF(C97&gt;B97, (C97-B97)*1440, (B97-C97)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <f>ABS((C97-B97)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>43422</v>
+      </c>
+      <c r="D98" s="3">
+        <f>(C98-B98)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <f>IF(C98&gt;B98, (C98-B98)*1440, (B98-C98)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <f>ABS((C98-B98)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>43423</v>
+      </c>
+      <c r="D99" s="3">
+        <f>(C99-B99)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <f>IF(C99&gt;B99, (C99-B99)*1440, (B99-C99)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <f>ABS((C99-B99)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>43424</v>
+      </c>
+      <c r="D100" s="3">
+        <f>(C100-B100)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <f>IF(C100&gt;B100, (C100-B100)*1440, (B100-C100)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <f>ABS((C100-B100)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>43425</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" ref="D101:D104" si="39">(C101-B101)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" ref="E101:E104" si="40">IF(C101&gt;B101, (C101-B101)*1440, (B101-C101)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" ref="F101:F104" si="41">ABS((C101-B101)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>43426</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>43427</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43428</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>43429</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" ref="D105:D110" si="42">(C105-B105)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" ref="E105:E110" si="43">IF(C105&gt;B105, (C105-B105)*1440, (B105-C105)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" ref="F105:F110" si="44">ABS((C105-B105)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>43430</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>43431</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>43432</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>43433</v>
+      </c>
+      <c r="D109" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>43434</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" ref="D111:D116" si="45">(C111-B111)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" ref="E111:E116" si="46">IF(C111&gt;B111, (C111-B111)*1440, (B111-C111)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <f t="shared" ref="F111:F116" si="47">ABS((C111-B111)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>43436</v>
+      </c>
+      <c r="D112" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>43437</v>
+      </c>
+      <c r="D113" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>43438</v>
+      </c>
+      <c r="D114" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>43439</v>
+      </c>
+      <c r="D115" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>43440</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA000C-3291-453E-A612-BAFB865EFF7D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0891A4-C2C0-4079-9959-38AEE421246F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="21150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,15 +2476,15 @@
         <v>0</v>
       </c>
       <c r="D91" s="3">
-        <f>(C91-B91)* 1440</f>
+        <f t="shared" ref="D91:D100" si="39">(C91-B91)* 1440</f>
         <v>0</v>
       </c>
       <c r="E91" s="4">
-        <f>IF(C91&gt;B91, (C91-B91)*1440, (B91-C91)*1440)</f>
+        <f t="shared" ref="E91:E100" si="40">IF(C91&gt;B91, (C91-B91)*1440, (B91-C91)*1440)</f>
         <v>0</v>
       </c>
       <c r="F91" s="4">
-        <f>ABS((C91-B91)*1440)</f>
+        <f t="shared" ref="F91:F100" si="41">ABS((C91-B91)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -2499,15 +2499,15 @@
         <v>0</v>
       </c>
       <c r="D92" s="3">
-        <f>(C92-B92)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E92" s="4">
-        <f>IF(C92&gt;B92, (C92-B92)*1440, (B92-C92)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F92" s="4">
-        <f>ABS((C92-B92)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2522,15 +2522,15 @@
         <v>0</v>
       </c>
       <c r="D93" s="3">
-        <f>(C93-B93)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E93" s="4">
-        <f>IF(C93&gt;B93, (C93-B93)*1440, (B93-C93)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F93" s="4">
-        <f>ABS((C93-B93)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2545,15 +2545,15 @@
         <v>0</v>
       </c>
       <c r="D94" s="3">
-        <f>(C94-B94)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E94" s="4">
-        <f>IF(C94&gt;B94, (C94-B94)*1440, (B94-C94)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F94" s="4">
-        <f>ABS((C94-B94)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2568,15 +2568,15 @@
         <v>0</v>
       </c>
       <c r="D95" s="3">
-        <f>(C95-B95)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E95" s="4">
-        <f>IF(C95&gt;B95, (C95-B95)*1440, (B95-C95)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F95" s="4">
-        <f>ABS((C95-B95)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2591,15 +2591,15 @@
         <v>0</v>
       </c>
       <c r="D96" s="3">
-        <f>(C96-B96)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E96" s="4">
-        <f>IF(C96&gt;B96, (C96-B96)*1440, (B96-C96)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F96" s="4">
-        <f>ABS((C96-B96)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2614,15 +2614,15 @@
         <v>0</v>
       </c>
       <c r="D97" s="3">
-        <f>(C97-B97)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E97" s="4">
-        <f>IF(C97&gt;B97, (C97-B97)*1440, (B97-C97)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F97" s="4">
-        <f>ABS((C97-B97)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2630,33 +2630,45 @@
       <c r="A98" s="2">
         <v>43422</v>
       </c>
+      <c r="B98" s="1">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.92638888888888893</v>
+      </c>
       <c r="D98" s="3">
-        <f>(C98-B98)* 1440</f>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>280.00000000000011</v>
       </c>
       <c r="E98" s="4">
-        <f>IF(C98&gt;B98, (C98-B98)*1440, (B98-C98)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>280.00000000000011</v>
       </c>
       <c r="F98" s="4">
-        <f>ABS((C98-B98)*1440)</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>280.00000000000011</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43423</v>
       </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
       <c r="D99" s="3">
-        <f>(C99-B99)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E99" s="4">
-        <f>IF(C99&gt;B99, (C99-B99)*1440, (B99-C99)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F99" s="4">
-        <f>ABS((C99-B99)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2665,15 +2677,15 @@
         <v>43424</v>
       </c>
       <c r="D100" s="3">
-        <f>(C100-B100)* 1440</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E100" s="4">
-        <f>IF(C100&gt;B100, (C100-B100)*1440, (B100-C100)*1440)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F100" s="4">
-        <f>ABS((C100-B100)*1440)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2682,15 +2694,15 @@
         <v>43425</v>
       </c>
       <c r="D101" s="3">
-        <f t="shared" ref="D101:D104" si="39">(C101-B101)* 1440</f>
+        <f t="shared" ref="D101:D104" si="42">(C101-B101)* 1440</f>
         <v>0</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" ref="E101:E104" si="40">IF(C101&gt;B101, (C101-B101)*1440, (B101-C101)*1440)</f>
+        <f t="shared" ref="E101:E104" si="43">IF(C101&gt;B101, (C101-B101)*1440, (B101-C101)*1440)</f>
         <v>0</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" ref="F101:F104" si="41">ABS((C101-B101)*1440)</f>
+        <f t="shared" ref="F101:F104" si="44">ABS((C101-B101)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -2699,15 +2711,15 @@
         <v>43426</v>
       </c>
       <c r="D102" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -2716,15 +2728,15 @@
         <v>43427</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F103" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -2733,15 +2745,15 @@
         <v>43428</v>
       </c>
       <c r="D104" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -2750,15 +2762,15 @@
         <v>43429</v>
       </c>
       <c r="D105" s="3">
-        <f t="shared" ref="D105:D110" si="42">(C105-B105)* 1440</f>
+        <f t="shared" ref="D105:D110" si="45">(C105-B105)* 1440</f>
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" ref="E105:E110" si="43">IF(C105&gt;B105, (C105-B105)*1440, (B105-C105)*1440)</f>
+        <f t="shared" ref="E105:E110" si="46">IF(C105&gt;B105, (C105-B105)*1440, (B105-C105)*1440)</f>
         <v>0</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" ref="F105:F110" si="44">ABS((C105-B105)*1440)</f>
+        <f t="shared" ref="F105:F110" si="47">ABS((C105-B105)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -2767,15 +2779,15 @@
         <v>43430</v>
       </c>
       <c r="D106" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F106" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -2784,15 +2796,15 @@
         <v>43431</v>
       </c>
       <c r="D107" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F107" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -2801,15 +2813,15 @@
         <v>43432</v>
       </c>
       <c r="D108" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F108" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -2818,15 +2830,15 @@
         <v>43433</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F109" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -2835,15 +2847,15 @@
         <v>43434</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F110" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -2852,15 +2864,15 @@
         <v>43435</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" ref="D111:D116" si="45">(C111-B111)* 1440</f>
+        <f t="shared" ref="D111:D116" si="48">(C111-B111)* 1440</f>
         <v>0</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" ref="E111:E116" si="46">IF(C111&gt;B111, (C111-B111)*1440, (B111-C111)*1440)</f>
+        <f t="shared" ref="E111:E116" si="49">IF(C111&gt;B111, (C111-B111)*1440, (B111-C111)*1440)</f>
         <v>0</v>
       </c>
       <c r="F111" s="4">
-        <f t="shared" ref="F111:F116" si="47">ABS((C111-B111)*1440)</f>
+        <f t="shared" ref="F111:F116" si="50">ABS((C111-B111)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -2869,15 +2881,15 @@
         <v>43436</v>
       </c>
       <c r="D112" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -2886,15 +2898,15 @@
         <v>43437</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F113" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -2903,15 +2915,15 @@
         <v>43438</v>
       </c>
       <c r="D114" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F114" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -2920,15 +2932,15 @@
         <v>43439</v>
       </c>
       <c r="D115" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F115" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -2937,15 +2949,15 @@
         <v>43440</v>
       </c>
       <c r="D116" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F116" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0891A4-C2C0-4079-9959-38AEE421246F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76A8B9-2F0F-4B54-AEF9-282F1BD7082D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="21600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,6 +2676,12 @@
       <c r="A100" s="2">
         <v>43424</v>
       </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
       <c r="D100" s="3">
         <f t="shared" si="39"/>
         <v>0</v>
@@ -2692,6 +2698,12 @@
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43425</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" ref="D101:D104" si="42">(C101-B101)* 1440</f>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76A8B9-2F0F-4B54-AEF9-282F1BD7082D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7353D99-5A8D-4D64-A341-49DB1F5E880D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="22050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,6 +2722,12 @@
       <c r="A102" s="2">
         <v>43426</v>
       </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
       <c r="D102" s="3">
         <f t="shared" si="42"/>
         <v>0</v>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7353D99-5A8D-4D64-A341-49DB1F5E880D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C635F20-D48F-47FD-B0D9-73D94EE5038F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="22500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,6 +2745,12 @@
       <c r="A103" s="2">
         <v>43427</v>
       </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
       <c r="D103" s="3">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -2761,6 +2767,12 @@
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43428</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
       </c>
       <c r="D104" s="3">
         <f t="shared" si="42"/>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C635F20-D48F-47FD-B0D9-73D94EE5038F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D320E0FA-C4FF-487E-8765-44CBF6B64979}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="22950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,6 +2791,12 @@
       <c r="A105" s="2">
         <v>43429</v>
       </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
       <c r="D105" s="3">
         <f t="shared" ref="D105:D110" si="45">(C105-B105)* 1440</f>
         <v>0</v>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D320E0FA-C4FF-487E-8765-44CBF6B64979}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B5F9F-D735-4365-B58E-467E839BFA5D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="23400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,6 +2814,12 @@
       <c r="A106" s="2">
         <v>43430</v>
       </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
       <c r="D106" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -2831,6 +2837,12 @@
       <c r="A107" s="2">
         <v>43431</v>
       </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
       <c r="D107" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -2848,6 +2860,12 @@
       <c r="A108" s="2">
         <v>43432</v>
       </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
       <c r="D108" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -2865,6 +2883,12 @@
       <c r="A109" s="2">
         <v>43433</v>
       </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
       <c r="D109" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -2882,6 +2906,12 @@
       <c r="A110" s="2">
         <v>43434</v>
       </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
       <c r="D110" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -2899,17 +2929,20 @@
       <c r="A111" s="2">
         <v>43435</v>
       </c>
+      <c r="B111" s="1">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="D111" s="3">
         <f t="shared" ref="D111:D116" si="48">(C111-B111)* 1440</f>
-        <v>0</v>
+        <v>-1114.9999999999998</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" ref="E111:E116" si="49">IF(C111&gt;B111, (C111-B111)*1440, (B111-C111)*1440)</f>
-        <v>0</v>
+        <v>1114.9999999999998</v>
       </c>
       <c r="F111" s="4">
         <f t="shared" ref="F111:F116" si="50">ABS((C111-B111)*1440)</f>
-        <v>0</v>
+        <v>1114.9999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B5F9F-D735-4365-B58E-467E839BFA5D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61677C53-A910-42C2-AA3A-78148CE68073}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="23400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="23850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,22 +2838,22 @@
         <v>43431</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D107" s="3">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>337.99999999999994</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>337.99999999999994</v>
       </c>
       <c r="F107" s="4">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>337.99999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2864,19 +2864,19 @@
         <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>0.40486111111111112</v>
       </c>
       <c r="D108" s="3">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="F108" s="4">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,22 +2884,22 @@
         <v>43433</v>
       </c>
       <c r="B109" s="1">
-        <v>0</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="C109" s="1">
-        <v>0</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="D109" s="3">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="F109" s="4">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,22 +2907,22 @@
         <v>43434</v>
       </c>
       <c r="B110" s="1">
-        <v>0</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D110" s="3">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>396.00000000000006</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>396.00000000000006</v>
       </c>
       <c r="F110" s="4">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>396.00000000000006</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,42 +2930,57 @@
         <v>43435</v>
       </c>
       <c r="B111" s="1">
-        <v>0.77430555555555547</v>
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.32013888888888892</v>
       </c>
       <c r="D111" s="3">
         <f t="shared" ref="D111:D116" si="48">(C111-B111)* 1440</f>
-        <v>-1114.9999999999998</v>
+        <v>461.00000000000006</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" ref="E111:E116" si="49">IF(C111&gt;B111, (C111-B111)*1440, (B111-C111)*1440)</f>
-        <v>1114.9999999999998</v>
+        <v>461.00000000000006</v>
       </c>
       <c r="F111" s="4">
         <f t="shared" ref="F111:F116" si="50">ABS((C111-B111)*1440)</f>
-        <v>1114.9999999999998</v>
+        <v>461.00000000000006</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43436</v>
       </c>
+      <c r="B112" s="1">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.5229166666666667</v>
+      </c>
       <c r="D112" s="3">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="F112" s="4">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43437</v>
       </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
       <c r="D113" s="3">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -2982,6 +2997,12 @@
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43438</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
       </c>
       <c r="D114" s="3">
         <f t="shared" si="48"/>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61677C53-A910-42C2-AA3A-78148CE68073}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E3DF9-2AC3-415B-90E6-494E5250443A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="23850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="24300" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F116" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F116" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F121" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F121" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,6 +3051,97 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>43441</v>
+      </c>
+      <c r="D117" s="3">
+        <f>(C117-B117)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <f>IF(C117&gt;B117, (C117-B117)*1440, (B117-C117)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <f>ABS((C117-B117)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>43442</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="D118" s="3">
+        <f>(C118-B118)* 1440</f>
+        <v>28.00000000000006</v>
+      </c>
+      <c r="E118" s="4">
+        <f>IF(C118&gt;B118, (C118-B118)*1440, (B118-C118)*1440)</f>
+        <v>28.00000000000006</v>
+      </c>
+      <c r="F118" s="4">
+        <f>ABS((C118-B118)*1440)</f>
+        <v>28.00000000000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>43442</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="D119" s="3">
+        <f>(C119-B119)* 1440</f>
+        <v>109.00000000000009</v>
+      </c>
+      <c r="E119" s="4">
+        <f>IF(C119&gt;B119, (C119-B119)*1440, (B119-C119)*1440)</f>
+        <v>109.00000000000009</v>
+      </c>
+      <c r="F119" s="4">
+        <f>ABS((C119-B119)*1440)</f>
+        <v>109.00000000000009</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="3">
+        <f>(C120-B120)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="4">
+        <f>IF(C120&gt;B120, (C120-B120)*1440, (B120-C120)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <f>ABS((C120-B120)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="3">
+        <f>(C121-B121)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <f>IF(C121&gt;B121, (C121-B121)*1440, (B121-C121)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <f>ABS((C121-B121)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E3DF9-2AC3-415B-90E6-494E5250443A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756F881-C192-4155-96E8-6AC3ED7EDC81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24300" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="24750" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F121" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F121" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F125" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F125" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,6 +3115,15 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>43443</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
       <c r="D120" s="3">
         <f>(C120-B120)* 1440</f>
         <v>0</v>
@@ -3129,6 +3138,15 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
       <c r="D121" s="3">
         <f>(C121-B121)* 1440</f>
         <v>0</v>
@@ -3139,6 +3157,80 @@
       </c>
       <c r="F121" s="4">
         <f>ABS((C121-B121)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D122" s="3">
+        <f>(C122-B122)* 1440</f>
+        <v>41.000000000000014</v>
+      </c>
+      <c r="E122" s="4">
+        <f>IF(C122&gt;B122, (C122-B122)*1440, (B122-C122)*1440)</f>
+        <v>41.000000000000014</v>
+      </c>
+      <c r="F122" s="4">
+        <f>ABS((C122-B122)*1440)</f>
+        <v>41.000000000000014</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D123" s="3">
+        <f>(C123-B123)* 1440</f>
+        <v>107.99999999999994</v>
+      </c>
+      <c r="E123" s="4">
+        <f>IF(C123&gt;B123, (C123-B123)*1440, (B123-C123)*1440)</f>
+        <v>107.99999999999994</v>
+      </c>
+      <c r="F123" s="4">
+        <f>ABS((C123-B123)*1440)</f>
+        <v>107.99999999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D124" s="3">
+        <f>(C124-B124)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <f>IF(C124&gt;B124, (C124-B124)*1440, (B124-C124)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <f>ABS((C124-B124)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D125" s="3">
+        <f>(C125-B125)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <f>IF(C125&gt;B125, (C125-B125)*1440, (B125-C125)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <f>ABS((C125-B125)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756F881-C192-4155-96E8-6AC3ED7EDC81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6829824A-A8CC-4051-B798-FF79A6305301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24750" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="25200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F125" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F125" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F126" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F126" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,15 +3056,15 @@
         <v>43441</v>
       </c>
       <c r="D117" s="3">
-        <f>(C117-B117)* 1440</f>
+        <f t="shared" ref="D117:D125" si="51">(C117-B117)* 1440</f>
         <v>0</v>
       </c>
       <c r="E117" s="4">
-        <f>IF(C117&gt;B117, (C117-B117)*1440, (B117-C117)*1440)</f>
+        <f t="shared" ref="E117:E125" si="52">IF(C117&gt;B117, (C117-B117)*1440, (B117-C117)*1440)</f>
         <v>0</v>
       </c>
       <c r="F117" s="4">
-        <f>ABS((C117-B117)*1440)</f>
+        <f t="shared" ref="F117:F125" si="53">ABS((C117-B117)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -3079,15 +3079,15 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="D118" s="3">
-        <f>(C118-B118)* 1440</f>
+        <f t="shared" si="51"/>
         <v>28.00000000000006</v>
       </c>
       <c r="E118" s="4">
-        <f>IF(C118&gt;B118, (C118-B118)*1440, (B118-C118)*1440)</f>
+        <f t="shared" si="52"/>
         <v>28.00000000000006</v>
       </c>
       <c r="F118" s="4">
-        <f>ABS((C118-B118)*1440)</f>
+        <f t="shared" si="53"/>
         <v>28.00000000000006</v>
       </c>
     </row>
@@ -3102,15 +3102,15 @@
         <v>0.6743055555555556</v>
       </c>
       <c r="D119" s="3">
-        <f>(C119-B119)* 1440</f>
+        <f t="shared" si="51"/>
         <v>109.00000000000009</v>
       </c>
       <c r="E119" s="4">
-        <f>IF(C119&gt;B119, (C119-B119)*1440, (B119-C119)*1440)</f>
+        <f t="shared" si="52"/>
         <v>109.00000000000009</v>
       </c>
       <c r="F119" s="4">
-        <f>ABS((C119-B119)*1440)</f>
+        <f t="shared" si="53"/>
         <v>109.00000000000009</v>
       </c>
     </row>
@@ -3125,15 +3125,15 @@
         <v>0</v>
       </c>
       <c r="D120" s="3">
-        <f>(C120-B120)* 1440</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E120" s="4">
-        <f>IF(C120&gt;B120, (C120-B120)*1440, (B120-C120)*1440)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F120" s="4">
-        <f>ABS((C120-B120)*1440)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -3148,15 +3148,15 @@
         <v>0</v>
       </c>
       <c r="D121" s="3">
-        <f>(C121-B121)* 1440</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E121" s="4">
-        <f>IF(C121&gt;B121, (C121-B121)*1440, (B121-C121)*1440)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F121" s="4">
-        <f>ABS((C121-B121)*1440)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -3171,15 +3171,15 @@
         <v>0.65</v>
       </c>
       <c r="D122" s="3">
-        <f>(C122-B122)* 1440</f>
+        <f t="shared" si="51"/>
         <v>41.000000000000014</v>
       </c>
       <c r="E122" s="4">
-        <f>IF(C122&gt;B122, (C122-B122)*1440, (B122-C122)*1440)</f>
+        <f t="shared" si="52"/>
         <v>41.000000000000014</v>
       </c>
       <c r="F122" s="4">
-        <f>ABS((C122-B122)*1440)</f>
+        <f t="shared" si="53"/>
         <v>41.000000000000014</v>
       </c>
     </row>
@@ -3194,43 +3194,75 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="D123" s="3">
-        <f>(C123-B123)* 1440</f>
+        <f t="shared" si="51"/>
         <v>107.99999999999994</v>
       </c>
       <c r="E123" s="4">
-        <f>IF(C123&gt;B123, (C123-B123)*1440, (B123-C123)*1440)</f>
+        <f t="shared" si="52"/>
         <v>107.99999999999994</v>
       </c>
       <c r="F123" s="4">
-        <f>ABS((C123-B123)*1440)</f>
+        <f t="shared" si="53"/>
         <v>107.99999999999994</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
       <c r="D124" s="3">
-        <f>(C124-B124)* 1440</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E124" s="4">
-        <f>IF(C124&gt;B124, (C124-B124)*1440, (B124-C124)*1440)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F124" s="4">
-        <f>ABS((C124-B124)*1440)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>43447</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
       <c r="D125" s="3">
-        <f>(C125-B125)* 1440</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E125" s="4">
-        <f>IF(C125&gt;B125, (C125-B125)*1440, (B125-C125)*1440)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F125" s="4">
-        <f>ABS((C125-B125)*1440)</f>
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D126" s="3">
+        <f>(C126-B126)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <f>IF(C126&gt;B126, (C126-B126)*1440, (B126-C126)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <f>ABS((C126-B126)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6829824A-A8CC-4051-B798-FF79A6305301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F91AA-50B6-4B4B-84B6-29DA569D9DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="25200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="25650" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F126" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F126" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F127" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F127" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,17 +3253,46 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>43448</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.69513888888888886</v>
+      </c>
       <c r="D126" s="3">
         <f>(C126-B126)* 1440</f>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="E126" s="4">
         <f>IF(C126&gt;B126, (C126-B126)*1440, (B126-C126)*1440)</f>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="F126" s="4">
         <f>ABS((C126-B126)*1440)</f>
-        <v>0</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>43449</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D127" s="3">
+        <f>(C127-B127)* 1440</f>
+        <v>-1089</v>
+      </c>
+      <c r="E127" s="4">
+        <f>IF(C127&gt;B127, (C127-B127)*1440, (B127-C127)*1440)</f>
+        <v>1089</v>
+      </c>
+      <c r="F127" s="4">
+        <f>ABS((C127-B127)*1440)</f>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F91AA-50B6-4B4B-84B6-29DA569D9DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142691EE-CD65-4531-B54D-DFA3029B6090}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="25650" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="26100" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F127" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F127" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F128" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F128" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,17 +3282,37 @@
       <c r="B127" s="1">
         <v>0.75624999999999998</v>
       </c>
+      <c r="C127" s="1">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="D127" s="3">
         <f>(C127-B127)* 1440</f>
-        <v>-1089</v>
+        <v>70.999999999999915</v>
       </c>
       <c r="E127" s="4">
         <f>IF(C127&gt;B127, (C127-B127)*1440, (B127-C127)*1440)</f>
-        <v>1089</v>
+        <v>70.999999999999915</v>
       </c>
       <c r="F127" s="4">
         <f>ABS((C127-B127)*1440)</f>
-        <v>1089</v>
+        <v>70.999999999999915</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>43450</v>
+      </c>
+      <c r="D128" s="3">
+        <f>(C128-B128)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <f>IF(C128&gt;B128, (C128-B128)*1440, (B128-C128)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <f>ABS((C128-B128)*1440)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142691EE-CD65-4531-B54D-DFA3029B6090}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D34105-4739-4760-A535-69532B8DCF6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="26100" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="26550" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F128" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F128" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F131" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F131" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,6 +3302,12 @@
       <c r="A128" s="2">
         <v>43450</v>
       </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
       <c r="D128" s="3">
         <f>(C128-B128)* 1440</f>
         <v>0</v>
@@ -3312,6 +3318,72 @@
       </c>
       <c r="F128" s="4">
         <f>ABS((C128-B128)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3">
+        <f>(C129-B129)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <f>IF(C129&gt;B129, (C129-B129)*1440, (B129-C129)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <f>ABS((C129-B129)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D130" s="3">
+        <f>(C130-B130)* 1440</f>
+        <v>336.99999999999994</v>
+      </c>
+      <c r="E130" s="4">
+        <f>IF(C130&gt;B130, (C130-B130)*1440, (B130-C130)*1440)</f>
+        <v>336.99999999999994</v>
+      </c>
+      <c r="F130" s="4">
+        <f>ABS((C130-B130)*1440)</f>
+        <v>336.99999999999994</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>43453</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
+        <f>(C131-B131)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="4">
+        <f>IF(C131&gt;B131, (C131-B131)*1440, (B131-C131)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="4">
+        <f>ABS((C131-B131)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D34105-4739-4760-A535-69532B8DCF6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8230D8-9063-4581-A508-B1FA67024108}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="26550" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="27000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F131" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F131" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F138" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F138" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,15 +3263,15 @@
         <v>0.69513888888888886</v>
       </c>
       <c r="D126" s="3">
-        <f>(C126-B126)* 1440</f>
+        <f t="shared" ref="D126:D131" si="54">(C126-B126)* 1440</f>
         <v>425</v>
       </c>
       <c r="E126" s="4">
-        <f>IF(C126&gt;B126, (C126-B126)*1440, (B126-C126)*1440)</f>
+        <f t="shared" ref="E126:E131" si="55">IF(C126&gt;B126, (C126-B126)*1440, (B126-C126)*1440)</f>
         <v>425</v>
       </c>
       <c r="F126" s="4">
-        <f>ABS((C126-B126)*1440)</f>
+        <f t="shared" ref="F126:F131" si="56">ABS((C126-B126)*1440)</f>
         <v>425</v>
       </c>
     </row>
@@ -3286,15 +3286,15 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="D127" s="3">
-        <f>(C127-B127)* 1440</f>
+        <f t="shared" si="54"/>
         <v>70.999999999999915</v>
       </c>
       <c r="E127" s="4">
-        <f>IF(C127&gt;B127, (C127-B127)*1440, (B127-C127)*1440)</f>
+        <f t="shared" si="55"/>
         <v>70.999999999999915</v>
       </c>
       <c r="F127" s="4">
-        <f>ABS((C127-B127)*1440)</f>
+        <f t="shared" si="56"/>
         <v>70.999999999999915</v>
       </c>
     </row>
@@ -3309,15 +3309,15 @@
         <v>0</v>
       </c>
       <c r="D128" s="3">
-        <f>(C128-B128)* 1440</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E128" s="4">
-        <f>IF(C128&gt;B128, (C128-B128)*1440, (B128-C128)*1440)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F128" s="4">
-        <f>ABS((C128-B128)*1440)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -3332,15 +3332,15 @@
         <v>0</v>
       </c>
       <c r="D129" s="3">
-        <f>(C129-B129)* 1440</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E129" s="4">
-        <f>IF(C129&gt;B129, (C129-B129)*1440, (B129-C129)*1440)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F129" s="4">
-        <f>ABS((C129-B129)*1440)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -3355,15 +3355,15 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D130" s="3">
-        <f>(C130-B130)* 1440</f>
+        <f t="shared" si="54"/>
         <v>336.99999999999994</v>
       </c>
       <c r="E130" s="4">
-        <f>IF(C130&gt;B130, (C130-B130)*1440, (B130-C130)*1440)</f>
+        <f t="shared" si="55"/>
         <v>336.99999999999994</v>
       </c>
       <c r="F130" s="4">
-        <f>ABS((C130-B130)*1440)</f>
+        <f t="shared" si="56"/>
         <v>336.99999999999994</v>
       </c>
     </row>
@@ -3375,15 +3375,143 @@
         <v>0</v>
       </c>
       <c r="D131" s="3">
-        <f>(C131-B131)* 1440</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E131" s="4">
-        <f>IF(C131&gt;B131, (C131-B131)*1440, (B131-C131)*1440)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F131" s="4">
-        <f>ABS((C131-B131)*1440)</f>
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>43454</v>
+      </c>
+      <c r="D132" s="3">
+        <f>(C132-B132)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <f>IF(C132&gt;B132, (C132-B132)*1440, (B132-C132)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <f>ABS((C132-B132)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>43455</v>
+      </c>
+      <c r="D133" s="3">
+        <f>(C133-B133)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="4">
+        <f>IF(C133&gt;B133, (C133-B133)*1440, (B133-C133)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="4">
+        <f>ABS((C133-B133)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>43456</v>
+      </c>
+      <c r="D134" s="3">
+        <f>(C134-B134)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E134" s="4">
+        <f>IF(C134&gt;B134, (C134-B134)*1440, (B134-C134)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <f>ABS((C134-B134)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>43457</v>
+      </c>
+      <c r="D135" s="3">
+        <f>(C135-B135)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <f>IF(C135&gt;B135, (C135-B135)*1440, (B135-C135)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <f>ABS((C135-B135)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D136" s="3">
+        <f>(C136-B136)* 1440</f>
+        <v>326.99999999999994</v>
+      </c>
+      <c r="E136" s="4">
+        <f>IF(C136&gt;B136, (C136-B136)*1440, (B136-C136)*1440)</f>
+        <v>326.99999999999994</v>
+      </c>
+      <c r="F136" s="4">
+        <f>ABS((C136-B136)*1440)</f>
+        <v>326.99999999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>43459</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="D137" s="3">
+        <f>(C137-B137)* 1440</f>
+        <v>533</v>
+      </c>
+      <c r="E137" s="4">
+        <f>IF(C137&gt;B137, (C137-B137)*1440, (B137-C137)*1440)</f>
+        <v>533</v>
+      </c>
+      <c r="F137" s="4">
+        <f>ABS((C137-B137)*1440)</f>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="3">
+        <f>(C138-B138)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <f>IF(C138&gt;B138, (C138-B138)*1440, (B138-C138)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <f>ABS((C138-B138)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8230D8-9063-4581-A508-B1FA67024108}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8703F9D-46DF-410A-85F1-4A920B7699D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="27000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="27450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F138" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F138" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F139" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F139" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,15 +3392,15 @@
         <v>43454</v>
       </c>
       <c r="D132" s="3">
-        <f>(C132-B132)* 1440</f>
+        <f t="shared" ref="D132:D138" si="57">(C132-B132)* 1440</f>
         <v>0</v>
       </c>
       <c r="E132" s="4">
-        <f>IF(C132&gt;B132, (C132-B132)*1440, (B132-C132)*1440)</f>
+        <f t="shared" ref="E132:E138" si="58">IF(C132&gt;B132, (C132-B132)*1440, (B132-C132)*1440)</f>
         <v>0</v>
       </c>
       <c r="F132" s="4">
-        <f>ABS((C132-B132)*1440)</f>
+        <f t="shared" ref="F132:F138" si="59">ABS((C132-B132)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -3409,15 +3409,15 @@
         <v>43455</v>
       </c>
       <c r="D133" s="3">
-        <f>(C133-B133)* 1440</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="E133" s="4">
-        <f>IF(C133&gt;B133, (C133-B133)*1440, (B133-C133)*1440)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F133" s="4">
-        <f>ABS((C133-B133)*1440)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -3426,15 +3426,15 @@
         <v>43456</v>
       </c>
       <c r="D134" s="3">
-        <f>(C134-B134)* 1440</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="E134" s="4">
-        <f>IF(C134&gt;B134, (C134-B134)*1440, (B134-C134)*1440)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F134" s="4">
-        <f>ABS((C134-B134)*1440)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -3443,15 +3443,15 @@
         <v>43457</v>
       </c>
       <c r="D135" s="3">
-        <f>(C135-B135)* 1440</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="E135" s="4">
-        <f>IF(C135&gt;B135, (C135-B135)*1440, (B135-C135)*1440)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F135" s="4">
-        <f>ABS((C135-B135)*1440)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -3466,15 +3466,15 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D136" s="3">
-        <f>(C136-B136)* 1440</f>
+        <f t="shared" si="57"/>
         <v>326.99999999999994</v>
       </c>
       <c r="E136" s="4">
-        <f>IF(C136&gt;B136, (C136-B136)*1440, (B136-C136)*1440)</f>
+        <f t="shared" si="58"/>
         <v>326.99999999999994</v>
       </c>
       <c r="F136" s="4">
-        <f>ABS((C136-B136)*1440)</f>
+        <f t="shared" si="59"/>
         <v>326.99999999999994</v>
       </c>
     </row>
@@ -3489,29 +3489,52 @@
         <v>0.37013888888888885</v>
       </c>
       <c r="D137" s="3">
-        <f>(C137-B137)* 1440</f>
+        <f t="shared" si="57"/>
         <v>533</v>
       </c>
       <c r="E137" s="4">
-        <f>IF(C137&gt;B137, (C137-B137)*1440, (B137-C137)*1440)</f>
+        <f t="shared" si="58"/>
         <v>533</v>
       </c>
       <c r="F137" s="4">
-        <f>ABS((C137-B137)*1440)</f>
+        <f t="shared" si="59"/>
         <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>43460</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
       <c r="D138" s="3">
-        <f>(C138-B138)* 1440</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="E138" s="4">
-        <f>IF(C138&gt;B138, (C138-B138)*1440, (B138-C138)*1440)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F138" s="4">
-        <f>ABS((C138-B138)*1440)</f>
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D139" s="3">
+        <f>(C139-B139)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E139" s="4">
+        <f>IF(C139&gt;B139, (C139-B139)*1440, (B139-C139)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F139" s="4">
+        <f>ABS((C139-B139)*1440)</f>
         <v>0</v>
       </c>
     </row>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8703F9D-46DF-410A-85F1-4A920B7699D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F7416F-081C-4381-9852-4A94C4B87A1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="27450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="28350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F139" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F139" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F141" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F141" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3374,17 +3374,20 @@
       <c r="B131" s="1">
         <v>0</v>
       </c>
+      <c r="C131" s="1">
+        <v>0.3756944444444445</v>
+      </c>
       <c r="D131" s="3">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>541.00000000000011</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>541.00000000000011</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>541.00000000000011</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,6 +3528,15 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>43461</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
       <c r="D139" s="3">
         <f>(C139-B139)* 1440</f>
         <v>0</v>
@@ -3536,6 +3548,52 @@
       <c r="F139" s="4">
         <f>ABS((C139-B139)*1440)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>43462</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <f>(C140-B140)* 1440</f>
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <f>IF(C140&gt;B140, (C140-B140)*1440, (B140-C140)*1440)</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <f>ABS((C140-B140)*1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D141" s="3">
+        <f>(C141-B141)* 1440</f>
+        <v>20.000000000000089</v>
+      </c>
+      <c r="E141" s="4">
+        <f>IF(C141&gt;B141, (C141-B141)*1440, (B141-C141)*1440)</f>
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F141" s="4">
+        <f>ABS((C141-B141)*1440)</f>
+        <v>20.000000000000089</v>
       </c>
     </row>
   </sheetData>

--- a/pakuro/pakuro-cda.xlsx
+++ b/pakuro/pakuro-cda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F7416F-081C-4381-9852-4A94C4B87A1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C5EDAF-1E2F-4A41-A543-DB5059B97BAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="28350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="29250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comforter-cda" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F141" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F141" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4F241E2-70B8-4E1C-A71D-2175999E1A36}" name="comforter_cda_table" displayName="comforter_cda_table" ref="A1:F146" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F146" xr:uid="{60EC4219-E3F1-48A9-8A10-9A735D5CAA88}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3194266-B947-4321-8934-F9C47FA9DE1C}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BD6ED93-E3D0-4F67-BDB8-9FEC9229AD12}" name="Start Time" dataDxfId="4"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,15 +3538,15 @@
         <v>0</v>
       </c>
       <c r="D139" s="3">
-        <f>(C139-B139)* 1440</f>
+        <f t="shared" ref="D139:D146" si="60">(C139-B139)* 1440</f>
         <v>0</v>
       </c>
       <c r="E139" s="4">
-        <f>IF(C139&gt;B139, (C139-B139)*1440, (B139-C139)*1440)</f>
+        <f t="shared" ref="E139:E146" si="61">IF(C139&gt;B139, (C139-B139)*1440, (B139-C139)*1440)</f>
         <v>0</v>
       </c>
       <c r="F139" s="4">
-        <f>ABS((C139-B139)*1440)</f>
+        <f t="shared" ref="F139:F146" si="62">ABS((C139-B139)*1440)</f>
         <v>0</v>
       </c>
     </row>
@@ -3561,15 +3561,15 @@
         <v>0</v>
       </c>
       <c r="D140" s="3">
-        <f>(C140-B140)* 1440</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E140" s="4">
-        <f>IF(C140&gt;B140, (C140-B140)*1440, (B140-C140)*1440)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F140" s="4">
-        <f>ABS((C140-B140)*1440)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -3584,16 +3584,110 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="D141" s="3">
-        <f>(C141-B141)* 1440</f>
+        <f t="shared" si="60"/>
         <v>20.000000000000089</v>
       </c>
       <c r="E141" s="4">
-        <f>IF(C141&gt;B141, (C141-B141)*1440, (B141-C141)*1440)</f>
+        <f t="shared" si="61"/>
         <v>20.000000000000089</v>
       </c>
       <c r="F141" s="4">
-        <f>ABS((C141-B141)*1440)</f>
+        <f t="shared" si="62"/>
         <v>20.000000000000089</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="60"/>
+        <v>100.00000000000013</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="61"/>
+        <v>100.00000000000013</v>
+      </c>
+      <c r="F142" s="4">
+        <f t="shared" si="62"/>
+        <v>100.00000000000013</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="60"/>
+        <v>143.00000000000006</v>
+      </c>
+      <c r="E143" s="4">
+        <f t="shared" si="61"/>
+        <v>143.00000000000006</v>
+      </c>
+      <c r="F143" s="4">
+        <f t="shared" si="62"/>
+        <v>143.00000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="60"/>
+        <v>-933</v>
+      </c>
+      <c r="E144" s="4">
+        <f t="shared" si="61"/>
+        <v>933</v>
+      </c>
+      <c r="F144" s="4">
+        <f t="shared" si="62"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="4">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
